--- a/Document/武将技能及晋升资质.xlsx
+++ b/Document/武将技能及晋升资质.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="295">
   <si>
     <t>四维</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1445,10 +1445,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当贾诩装备法术类装备时，会优先攻击生命百分比最低的单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1486,10 +1482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2223,6 +2215,83 @@
       </rPr>
       <t>回合</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对敌方单体造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>320%~360%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的伤害，并提高自身格挡率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合，调息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法防比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2707,8 +2776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N3" sqref="A3:N23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2869,8 +2938,8 @@
       <c r="M3" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="N3" s="2">
-        <v>96</v>
+      <c r="N3" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>251</v>
@@ -2885,7 +2954,7 @@
         <v>249</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>247</v>
@@ -2940,7 +3009,7 @@
         <v>219</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>256</v>
@@ -3011,34 +3080,34 @@
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q5" s="3" t="s">
+      <c r="T5" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="V5" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="41.25">
@@ -3084,16 +3153,16 @@
         <v>218</v>
       </c>
       <c r="N6" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -3182,7 +3251,7 @@
         <v>221</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S8" s="14" t="s">
         <v>234</v>
@@ -3243,7 +3312,7 @@
         <v>265</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>271</v>
@@ -3652,10 +3721,10 @@
         <v>218</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -3913,7 +3982,7 @@
         <v>219</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="42">
@@ -6407,12 +6476,13 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6599,7 +6669,7 @@
   <dimension ref="A1:C262"/>
   <sheetViews>
     <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C135"/>
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Document/武将技能及晋升资质.xlsx
+++ b/Document/武将技能及晋升资质.xlsx
@@ -1,34 +1,1036 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiang\Documents\GitHub\NewPhoenix\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一阶段" sheetId="4" r:id="rId1"/>
-    <sheet name="天气" sheetId="5" r:id="rId2"/>
-    <sheet name="永久性通用被动" sheetId="6" r:id="rId3"/>
-    <sheet name="条件性通用被动" sheetId="7" r:id="rId4"/>
-    <sheet name="战斗公式" sheetId="8" r:id="rId5"/>
-    <sheet name="debuff" sheetId="10" r:id="rId6"/>
-    <sheet name="buff" sheetId="9" r:id="rId7"/>
-    <sheet name="备份" sheetId="1" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
+    <sheet name="天气" sheetId="5" r:id="rId3"/>
+    <sheet name="永久性通用被动" sheetId="6" r:id="rId4"/>
+    <sheet name="条件性通用被动" sheetId="7" r:id="rId5"/>
+    <sheet name="战斗公式" sheetId="8" r:id="rId6"/>
+    <sheet name="debuff" sheetId="10" r:id="rId7"/>
+    <sheet name="buff" sheetId="9" r:id="rId8"/>
+    <sheet name="备份" sheetId="1" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">备份!$A$1:$X$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">备份!$A$1:$X$136</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一阶段!$A$1:$X$65</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>xu xu</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填写类型：1000-9999正整数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+名称
+填写类型：字符串
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+描述
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+图标
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+原画
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+模型
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">xu xu:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">职业
+无 = 0,
+破军 = 1,
+贪狼 = 2,
+七杀 = 3,
+填写类型：0-3整数
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+国籍
+无国籍 = 0,  
+魏 = 1,   
+蜀 = 2,  
+吴 = 3,
+群 = 4,
+填写类型：0-4整数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+颜色
+ 白 = 0,
+ 绿 = 1,
+ 蓝 = 2,
+ 紫 = 3,
+ 橙 = 4,
+填写类型：0-4整数
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+性别
+未知 = 0,
+女 = 1,
+男 = 2,
+填写类型：0-2整数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+品质
+1-7星
+填写类型：正整数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+等级
+1-255
+填写类型：正整数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1级主属性
+力量 = 0,
+智力 = 1,
+敏捷 = 2,
+体质 = 3,
+填写类型：0-3整数
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+力量
+填写类型：自然数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+智力
+填写类型：自然数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+敏捷
+填写类型：自然数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+体质
+填写类型：自然数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+能够装的武器类型
+    穿刺 = 0,
+    法术 = 1,  
+    粉碎 = 2, 
+    横扫 = 3,
+    短兵 = 4,
+    远射 = 5,
+    治疗 = 6,
+填写格式：使用英文逗号隔开
+例如 0,1 
+     3,4
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+生命值
+填写类型：自然数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+攻击力
+填写类型：自然数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">xu xu:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物理防御
+填写类型：自然数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+法术防御
+填写类型：自然数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+速度
+填写类型：自然数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+命中
+填写类型：大于等于0的浮点数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+闪避
+填写类型：大于等于0的浮点数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+暴击
+填写类型：大于等于0的浮点数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+抗暴
+填写类型：大于等于0的浮点数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+暴击伤害</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+暴击伤害减免
+填写类型：大于等于0的浮点数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+治疗
+填写类型：大于等于0的浮点数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+被治疗
+填写类型：大于等于0的浮点数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+格挡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+破挡
+填写类型：大于等于0的浮点数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+特殊属性
+七杀 怒气值
+贪狼 法力值
+破军 护盾值
+填写类型：自然数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+护盾类型
+没有护盾属性 = 0,
+先使用护盾再使用生命 = 1,
+先使用生命再使用护盾 = 2,
+填写类型：0-2整数
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="942">
   <si>
     <t>四维</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>典韦</t>
@@ -110,11 +1112,11 @@
   </si>
   <si>
     <t>晋升能力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1阶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2阶</t>
@@ -142,11 +1144,11 @@
   </si>
   <si>
     <t>土遁之术：增加左慈10点敏捷，且每点敏捷会额外提升0.1点左慈的速度和百分之0.5命中率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>雷神之盾：张角受到伤害时，一半的伤害将有法力吸收每点法力会吸收2点伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -179,27 +1181,27 @@
       </rPr>
       <t>法术伤害</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>体质</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>智力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>力量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敏捷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>总属性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>曹操</t>
@@ -440,7 +1442,7 @@
   </si>
   <si>
     <t>国籍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>S</t>
@@ -549,119 +1551,119 @@
   </si>
   <si>
     <t>蜀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>品质</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SSS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>职业</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破军</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>贪狼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>七杀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>粉碎</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>武器2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>短兵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>法术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>横扫</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>穿刺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>远射</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>体质</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>力量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敏捷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敏捷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>智力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>力量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>智力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>体质</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>短兵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>法术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>颜色</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>刺日*吞月：当张辽装备穿刺类武器时，对首个目标额外增加X伤害；当装备横扫类武器时，额外增加一个目标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -684,46 +1686,46 @@
       </rPr>
       <t>X</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>暴怒：当张飞装备穿刺类武器时，对首个目标身旁的两个单位造成X溅射伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>穿云*青釭：当赵云装备穿刺类武器时，可额外增加一个目标；当装备短兵器时，普通攻击可为目标附加一个破甲状态，受到物理伤害提升X，持续2回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破军</t>
   </si>
   <si>
     <t>七杀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>贪狼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破军</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>陷阵*绝杀：当甘宁装备短兵器时，增加自身X生命上限，当装备远射类武器时，普通攻击对生命X以下的敌人增加X伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>都督*圣兽</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>都督*白虎：当陆逊装备法术武器时，普攻伤害增加X；当装备短兵时，白虎的防御增加</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -756,7 +1758,7 @@
       </rPr>
       <t>，攻击将会波及到其身后的所有目标；当装备远射类装备时，命中率提高百分之百</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -789,7 +1791,7 @@
       </rPr>
       <t>回合调息时间</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -822,23 +1824,23 @@
       </rPr>
       <t>的英灵继续战斗，持续两回合或英灵阵亡</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>战意</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生命值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>最终伤免</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>格挡后可以反击，造成百分之五十伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -891,7 +1893,7 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -924,7 +1926,7 @@
       </rPr>
       <t>闪避率</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -957,15 +1959,15 @@
       </rPr>
       <t>闪避率</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>最终伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>速度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -988,11 +1990,11 @@
       </rPr>
       <t>30</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>增加百分之30格挡率，当体质大于对方时，格挡伤害降低10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1015,7 +2017,7 @@
       </rPr>
       <t>30%</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1058,7 +2060,7 @@
       </rPr>
       <t>30%</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1111,15 +2113,15 @@
       </rPr>
       <t>回合，无消耗</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>先机技：奇计：战斗开始时，敌方所有人有百分之20几率陷入晕眩状态，持续一回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1162,11 +2164,11 @@
       </rPr>
       <t>10%</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>流言：对单体目标造成120%伤害，50%附加晕眩一回合，调息2回合，消耗80点法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1209,15 +2211,15 @@
       </rPr>
       <t>10%</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>抗暴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>物理伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1240,23 +2242,23 @@
       </rPr>
       <t>30%</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>当关羽击杀一个目标后，绝技的调息时间减少2回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>当友方武将对敌方目标暴击时，关羽会随后对该目标造成150%的伤害，最多触发7次</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>关羽死亡时对击杀者造成400%的伤害，并附加封技1回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>当贾诩装备法术类装备时，会优先攻击生命百分比最低的单位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1289,7 +2291,7 @@
       </rPr>
       <t>溅射伤害</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1342,11 +2344,11 @@
       </rPr>
       <t>生命</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破釜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1369,11 +2371,11 @@
       </rPr>
       <t>0%</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>减少全队受到的魔法伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1426,7 +2428,7 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1459,11 +2461,11 @@
       </rPr>
       <t>回合调息时间</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>当司马懿装备法术类装备时，每次攻击可回复30%自身智力值的法力；当装备短兵时，每次攻击可吸取30%生命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1496,11 +2498,11 @@
       </rPr>
       <t>名敌方单位造成伤害并</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>连破击杀一个目标后，可重置调息时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1523,11 +2525,11 @@
       </rPr>
       <t>30%</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>杀死于吉的单位获得【缠怨】状态5回合，当其生命低于20%时，则立即死亡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1580,7 +2582,7 @@
       </rPr>
       <t>物理伤害</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1633,11 +2635,11 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>法防比</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1650,7 +2652,7 @@
       </rPr>
       <t>绝技</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1716,7 +2718,7 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1818,7 +2820,7 @@
       </rPr>
       <t>点法力</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1956,7 +2958,7 @@
       </rPr>
       <t>以下无法释放</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2040,7 +3042,7 @@
       </rPr>
       <t>点法力</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2073,15 +3075,15 @@
       </rPr>
       <t>的攻击并晕眩一回合</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>七杀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>马踏天下：对直线敌人造成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2114,27 +3116,27 @@
       </rPr>
       <t>时，孙策获得【激昂】状态：攻击力增加百分之百</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>长版怒吼：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>马良</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>群</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>祝融夫人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>7星</t>
@@ -2222,7 +3224,7 @@
   </si>
   <si>
     <t>1阶能力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2阶能力</t>
@@ -2299,299 +3301,299 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>人物特点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>远射群伤，短兵连击，输出位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>残血觉醒，效果强力，单秒收人头，吴国小光环</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>吴国大光环，灵魂锁链</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>远射</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>短兵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>法术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>高格挡，死亡出盾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>短兵肉，高格挡反击；远射高输出，克破军</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>双人回复，输出带破甲，克七杀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>命中较低，暴击伤害高，格挡后反击暴击高</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>高防御，可无敌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>死亡自爆，先机技晕眩，控制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>治疗，生贪狼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>锤主控制，法术生七杀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>稳定输出，可横排可竖排，生破军</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>标准战士，生破军</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>贪狼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>七杀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破军</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>贪狼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破军</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>治疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>远程高伤害克破军，魏国第一速度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>射手，几率触发多次打击，高速度，吴国第一速度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>七杀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>高血，魏国大光环</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生七杀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>随机AOE伤害，生七杀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>单点击破，高暴击率，克七杀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>增益，生贪狼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>辅助带减益，克贪狼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>蜀国第一速度，先机技废掉对面一个</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点杀，死亡废掉一人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>长驱直入，前几次攻击较高，先机技带破甲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>速度很慢，开局减伤，高伤害，面积伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>魏国小光环，克贪狼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>高闪避高速度，减益增益</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>先机技加全体速度，依赖法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>高闪避，面积伤害，大雾天气专家</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>单点击破，沙暴天气专家，收人头刷cd，法术兵器回复法力，永动机；短兵回复生命，靠普攻</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>横排减怒，克七杀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破军</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>中毒减益伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>群雄大光环</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>群雄小光环</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>后排单点，高命中，高伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>连环伤害，克贪狼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>速度快，直线突击，受伤减CD，克破军</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>群攻群疗，灼烧叠加，大风天气专家，召唤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>火烧一切，召唤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>治疗，减少自身伤害，召唤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>持续回合越久越强力，前期输出薄弱，召唤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生贪狼，控制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>告诉封疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>无限吸血</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生破军，蜀国大光环</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>依赖法力，法力耗尽觉醒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>伤害很高</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>无敌加控制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>减伤，蜀国小光环</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>闪避劈人，雷雨天气专家，带感电，增加法术伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>减益</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>稳定输出，生破军</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>法力抵消伤害，加攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>横扫全屏，远射必中，克破军</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>中毒伤害，克七杀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>高血量，血牛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对撕裂状态有加成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生贪狼，减益</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>克贪狼，控制高速</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>附加撕裂状态，生七杀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>有死亡技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2624,7 +3626,7 @@
       </rPr>
       <t>的伤害</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2697,7 +3699,7 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2750,7 +3752,7 @@
       </rPr>
       <t>回合，无消耗</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2903,7 +3905,7 @@
       </rPr>
       <t>以下无法释放</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2956,27 +3958,27 @@
       </rPr>
       <t>生命</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>迅捷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>不灭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破蜀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>徐林</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破击：对单体造成X伤害3回合调息时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3029,31 +4031,31 @@
       </rPr>
       <t>回合调息时间</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破釜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>水星</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>反击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>反击时对竖排敌人造成伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>钢筋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>坚甲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3086,7 +4088,7 @@
       </rPr>
       <t>转化为破军护盾吸收即将到来的伤害</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3129,35 +4131,35 @@
       </rPr>
       <t>20%</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每次承受少于自身最大生命值百分之十的伤害时，绝技的调息时间便缩短一回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>死亡出盾，纯肉，防高，压血</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>茂盛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>铁骨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破魏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>逆转：绝技的消耗变为回复</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>背水</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3190,35 +4192,35 @@
       </rPr>
       <t>伤害给对方</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>苦肉*鞭挞：当黄盖装备粉碎类武器时，普通攻击有百分之10的几率是对方陷入【混乱】；当</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>高血反伤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>利刃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>疾风</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>鹰眼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>决胜：当对方的敏捷值小于凌统时，必定暴击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>当装备远射类武器时，普通攻击可追击，最多追击2次</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3251,27 +4253,27 @@
       </rPr>
       <t>点敏捷值</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>狼嗥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每次暴击减少一回合绝技调息时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>鹰眼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>凰涎</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>神佑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3294,23 +4296,23 @@
       </rPr>
       <t>20%</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>制衡：对敌方单体造成X伤害并回复自身X生命，调息2回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>发动制衡时，若生命百分百少于敌方，则减少1回合绝技调息时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>增加吴国全体伤害百分之30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>火星</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3343,11 +4345,11 @@
       </rPr>
       <t>伤害</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>先机技：联姻：开场时和随机一名友方单位同时进入【联姻】状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3400,19 +4402,19 @@
       </rPr>
       <t>点怒气</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>当联姻的目标击杀一名敌方单位后，孙尚香的绝技立刻调息完毕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>当联姻目标在其回合对敌方造成伤害时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>灭杀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3475,7 +4477,7 @@
       </rPr>
       <t>X</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3508,7 +4510,7 @@
       </rPr>
       <t>最大生命值</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3601,7 +4603,7 @@
       </rPr>
       <t>回合调息</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3694,7 +4696,7 @@
       </rPr>
       <t>回合调息</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3767,11 +4769,11 @@
       </rPr>
       <t>回合调息</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>索命：对敌方后排单体造成X伤害，并【封技】一回合，5回合调息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3844,7 +4846,7 @@
       </rPr>
       <t>回合调息</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3897,7 +4899,7 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3970,23 +4972,23 @@
       </rPr>
       <t>回合调息</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>龙啸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>狼嗥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>装备穿刺类武器时额外增加一个目标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>反击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4019,63 +5021,63 @@
       </rPr>
       <t>破军盾，用于吸收即将到来的伤害</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>金星</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>抗群</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>镇静</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>屠狼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>压制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>茂盛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>背水</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对后排单体造成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>甲胄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>勘察</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>当自身破军盾被击破时，绝技的调息时间减少1回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>钢筋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>风流</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4108,27 +5110,27 @@
       </rPr>
       <t>伤害并附加灼烧</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>先机技：大风</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>攻击灼烧类敌方单位时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>慧根</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>免疫全队大风天气的负面影响</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>大风天气下，灼烧效果加倍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4548,7 +5550,7 @@
   </si>
   <si>
     <t>大风</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
@@ -4882,59 +5884,59 @@
   </si>
   <si>
     <t>天气</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>雷电</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>沙暴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>雾霾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>全场命中减少</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>全场法防降低</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>全场物防降低</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>全场攻击降低</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>周瑜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>张角</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>司马懿</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>诸葛亮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>发起人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4957,43 +5959,43 @@
       </rPr>
       <t>30%</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>慧根；对智力低于自身的敌人造成伤害时，吸收X生命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>徐林</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每次闪避后，可增加自身最大生命百分之十的破军护盾，破军护盾在吕蒙濒死时用于吸收伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6星</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>大风天气下，自身的【灼烧】效果加倍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>自身免疫【攻击降低】效果，免疫全队大风天气的负面影响</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>自身免疫【物理防御降低】效果，并使全队免疫沙暴天气的负面影响</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>琴音：对随机三个敌方目标造成X伤害，若其正被【灼烧】，则伤害提升X，调息3回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每次普攻到一个被灼烧类敌方单位时，会回复X法力值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5046,7 +6048,7 @@
       </rPr>
       <t>会回复自身生命</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5139,7 +6141,7 @@
       </rPr>
       <t>点法力</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5192,7 +6194,7 @@
       </rPr>
       <t>（恶劣天气下效果翻倍）</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5245,7 +6247,7 @@
       </rPr>
       <t>（恶劣天气下效果翻倍）</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5298,7 +6300,7 @@
       </rPr>
       <t>（恶劣天气下效果翻倍）</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5321,7 +6323,7 @@
       </rPr>
       <t>0%</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>当吕布装备横扫类装备时，攻击系数降低0.2，攻击将会波及到其身后的所有目标；当装备远射类装备时，命中率提高百分之百</t>
@@ -5387,75 +6389,75 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>利刃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>倜傥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>自身免疫【命中降低】效果，并使全队免疫雾霾天气的负面影响</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>百鸟朝凤：对直线敌人造成x伤害，并击破额外X破军盾，调息5回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>背水</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破釜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>七探蛇盘：对直线敌人造成X伤害，30%几率再次释放，5回合调息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>赵云每杀死一个目标时，减少一回合绝技调息和并重置七探蛇盘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>不动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>斩破</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>振奋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>强力；当力量大于对方时，破挡率增加100%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>普通攻击造成伤害的百分之20变为破军盾，抵挡即将到来的伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>修罗地狱：攻击增加百分之20，免疫一切来自其他人的状态（包括治疗）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>若此次攻击无人格挡则减少一回合绝技调息时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>装备法术类武器时，伤害增加百分之30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>强力；当力量大于对方时伤害增加30%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5538,11 +6540,11 @@
       </rPr>
       <t>30%</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>普攻怒气获取翻倍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5575,11 +6577,11 @@
       </rPr>
       <t>生命</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>迅捷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5632,91 +6634,91 @@
       </rPr>
       <t>防御</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>缥缈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每次被攻击回复X法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>大雾天气下，自身回合开始前，随机对敌方一个单位附加【致盲】，持续1回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对敌方全体造成X伤害，并提升全队友方闪避X，调息时间5回合，消耗X法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每次闪避敌人攻击时，回复X法力，并减少绝技1回合调息时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>七星灯：友方闪避一次攻击时，对其施加祝福效果，提升其X攻击，持续一回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>装备法术类武器时，普通攻击30几率附加【混乱】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>洞察</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>疾风</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每回合回复X法力值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对敌方前排全部目标造成X伤害，并附加【封技】状态两回合，调息3回合，消耗X法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>幻化：对随机3个目标造成X伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>幻化和绝技对贪狼减少X法力，对七杀减少X怒气，对破军额外击破X破军盾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>慧根，对智力低于自身的敌人【一定命中】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>灵动；百分之20的敏捷值转化为智力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>水星</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>屠狼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>自身免疫【法术防御降低】效果，并使全队免疫雷雨天气的负面效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>黄天当立：对敌方全造成X伤害并有30%几率附带【感电】2回合，调息3回合，消耗X法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>疾风</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>鹰眼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5769,15 +6771,15 @@
       </rPr>
       <t>（恶劣天气下效果翻倍）</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>雷雨天气下，张角每次闪避敌方攻击将发动一次不消耗法力的五雷轰顶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对敌方全体造成X伤害，并30%附加【恫吓】状态两回合，【恫吓】状态下的目标攻防速都减少5%，调息时间5回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5810,11 +6812,11 @@
       </rPr>
       <t>法力</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>五雷轰顶：对随机一名单体敌方单位造成X伤害，若其身上有【感电】效果，则造成【晕眩】一回合，消耗X法力，3回合调息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5867,19 +6869,19 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>利刃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>土星</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>振奋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5902,35 +6904,35 @@
       </rPr>
       <t>30%</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>掠夺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>利刃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>初始获得50%怒气</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对【撕裂】状态敌人造成伤害时，回复X怒气</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>狮搏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>狼嗥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对速度小于自身的敌人造成伤害时，必定附加【撕裂】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6013,7 +7015,7 @@
       </rPr>
       <t>附加【撕裂】</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6096,43 +7098,43 @@
       </rPr>
       <t>附加【撕裂】</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对攻击小于自身的敌人造成伤害时，伤害增加20%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>自身的【撕裂】效果加倍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对【撕裂】效果的敌人造成伤害时，伤害增加30%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>浴血</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>不动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>毁灭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>穿刺断腕：对敌方直线造成X伤害，并有50%几率附加【撕裂】2回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>横扫断腕：对敌方横排造成X伤害，并有40%几率附加【撕裂】2回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>威震：对随机5名敌方单位造成X伤害并回复己方全体破军盾X点，5回合调息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6245,7 +7247,7 @@
       </rPr>
       <t>点法力</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6338,7 +7340,7 @@
       </rPr>
       <t>点法力</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6371,7 +7373,7 @@
       </rPr>
       <t>几率陷入【晕眩】状态，持续一回合</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6414,7 +7416,7 @@
       </rPr>
       <t>10%</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6457,43 +7459,43 @@
       </rPr>
       <t>30%</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>水星</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>杀死自身的单位获得【缠怨】效果3回合，被【缠怨】附身的目标无法回复生命，且当其生命下降到百分之20时，直接死亡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>茂盛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>感知</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>掠夺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>龙啸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>马踏天下：对直线敌人造成X伤害，百分之20附加【迟缓】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>灵动；对速度低于自身的敌人暴击伤害增加50%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>普通攻击的怒气获取效果提升</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6526,7 +7528,7 @@
       </rPr>
       <t>伤害并附加【迟缓】</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6559,39 +7561,39 @@
       </rPr>
       <t>伤害附加【迟缓】</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>免疫【迟缓】，施放绝技后提升自身速度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破魏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>压制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破蜀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>勘察</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>陆逊在场时，被火烧死的单位会对周围单位造成X伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>飘渺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>红莲业火：对敌方全造成X伤害，有30%几率附带【灼烧】2回合，调息3回合，消耗X法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6664,11 +7666,11 @@
       </rPr>
       <t>攻击，直到回合结束</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>普通攻击的5%的伤害会转化为法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6721,11 +7723,11 @@
       </rPr>
       <t>；当装备短兵时，会召唤白虎之力，增加全队攻击力</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>长版怒吼：对横排全部敌人造成X伤害，并对其中的七杀减少X怒气</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6798,7 +7800,7 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6831,11 +7833,11 @@
       </rPr>
       <t>溅射伤害</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破釜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6868,7 +7870,7 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6901,147 +7903,147 @@
       </rPr>
       <t>点法力</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>铁索连环影响效果增加一个目标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>灭杀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>风流</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>武器1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>治疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>远射</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>粉碎</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>短兵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>法术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>穿刺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对单体目标造成X伤害，额外击破X破军盾，并提升X格挡率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>压制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>金星</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>反击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>斩破</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>甲胄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>反击时获得X怒气</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>复仇：当队友被暴击时，甘宁将对攻击者造成X伤害，限发动10次</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>狼嗥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{(我方攻击力-对方对应防御值)X技能系数X[1+(我方攻击对应属性-对方对应属性)%]+最终伤害-对方最终伤免}X(1+我方增伤百分比-对方减伤百分比)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对随机三个单位造成X伤害，有X几率再次发动，造成一半伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>慧根；免疫【灼烧】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>火烧联营：对敌方直线造成X伤害，并附加【灼烧】2回合，3回合调息，消耗X法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>审时度势：速度高于陆逊的敌人对其伤害减少X；陆逊对速度低于他的敌人伤害增加X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对单体敌人造成X伤害，若该敌人被【灼烧】，则附加【晕眩】1回合，调息3回合，消耗X法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>敏捷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>涅槃：死亡后满血满蓝复活，但每回合减少20%最大血量，限定一次</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>铁索连环：对随机两个单位造成X伤害，并【连环】3回合，优先选择未被【连环】的单位，调息2回合，消耗X法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对单体目标造成X伤害，并附加【灼烧】，持续2回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>不动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>当本队人数少于2人（含2人）时，赵云的伤害提升X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>感知</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>灭杀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>虚无</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>凰涎；免疫【中毒】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7094,95 +8096,95 @@
       </rPr>
       <t>法力</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对随机3名敌人造成X伤害，并附加【中毒】，消耗X法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>琅琊道额外增加1个目标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>治疗暴击时，回复X法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>太平*领道：当于吉装备法术类武器时，普通攻击几率附加【中毒】；当装备治疗类武器时，暴击率增加X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>增加女性武将的伤害30%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>天香</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破群</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>慧根；免疫【连环】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>死亡时对全部贪狼队友回复X法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>疾风</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>贤良*天公：当张角装备法术类武器的时候，会附加【感电】状态2回合；当装备短兵时，普攻对【感电】状态的敌人50%造成【晕眩】1回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>绝技消耗的敌方法力将回复自身法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>纷舞：当貂蝉装备法术类武器时，普通攻击增加一个目标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>闭月：对随机两名敌方目标造成X伤害，优先选择贪狼，若目标为贪狼，则降低其10%最大法力，调息3回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>离间：对两名目标造成【离间】，若均命中，则攻击高的一方对攻击低的一方造成X伤害，消耗X法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>火星</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>金星</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>自身破军盾被击破时，减少绝技调息一回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>当本队死亡人数少于2人时，张辽的伤害提升X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>许褚的粉碎类武器，普攻攻击范围增大</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>受到伤害获得的怒气值提升</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对全体友方回复X生命，消耗X法力，调息3回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7275,31 +8277,31 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>王佐之才的影响目标变为全体</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>勘察</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>木星</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对生命50%以下的友方治疗量翻倍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>压制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每回合回复X法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7372,71 +8374,71 @@
       </rPr>
       <t>几率触发连击</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>普通攻击和绝技50%触发【缴械】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>利刃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>迅捷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>水星</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>运筹：对单体目标造成X，若目标死于该技能则再次发动运筹，不无限施放，调息3回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破蜀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>龙啸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>狼嗥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每次发动连击时，增加X怒气</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>暴击的怒气提升效果翻倍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>背水</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对敏捷小于自身的目标【一定命中】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>徐林</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破魏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>抗魏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>杀死一个目标时，大幅提升怒气</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7529,31 +8531,31 @@
       </rPr>
       <t>伤害</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对【麻痹】的目标伤害增加X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对后排单体造成X伤害，并造成【麻痹】状态2回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>当黄忠装备横扫类装备时，普攻50%几率造成【麻痹】2回合；当装备远射类武器时，普通攻击对生命X以下的敌人增加X伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>先机技：当先：自身前两个回合速度增加X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>抗吴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>斩破</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7606,123 +8608,123 @@
       </rPr>
       <t>系数</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>普通攻击和绝技50%触发【致盲】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对后排全部单位造成X伤害，并击破X护盾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>反击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>装备穿刺类武器时额外增加一个目标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>坚甲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>不灭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>抗群</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对直线造成X伤害，并提升自身格挡率50%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每次未命中时，增加反击伤害直到战斗结束</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>强力，免疫【缴械】【破甲】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>当荀彧装备法术类武器时，普攻50%附加【感电】；装备治疗类装备时，治疗率增加X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每死亡一个友方单位，姜维的攻击提升X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>普攻回复X法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对随机3名敌人造成X伤害，消耗X法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对全体单位增加X防御</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>毁灭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>风流</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>洞察</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>当装备穿刺类武器时，普通攻击附加【破甲】2回合，当装备法术类武器时，普通攻击附加【感电】2回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对直线敌人造成伤害，调息2回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对全体敌人造成X伤害，并20%附加【晕眩】1回合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>减少X速度转化为等值物理防御和法术防御</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>徐林</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>坚甲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>免疫【晕眩】【迟缓】，比自身速度快的英雄对其伤害减少30%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>先机技：初次被伤害时，免疫该伤害，怒气增加100，且初次伤害增加100%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>毁灭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>增加攻击百分比</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7739,326 +8741,463 @@
       </rPr>
       <t>D</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>灼烧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>晕眩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>缴械</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>封技</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>破甲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>连环</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>麻痹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>恫吓</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>混乱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>激昂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>缠怨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>感电</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>先机技：增加全队七杀50%怒气</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>中毒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>离间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>撕裂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>流血</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>持续减血</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>伤害类战斗公式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>持续类战斗公式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{我方攻击力X技能系数X[1+(我方攻击对应属性-对方对应属性)%]}X(1+我方增伤百分比-对方减伤百分比)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>回合前减血，不受防御影响，仅受到物理减伤和总减伤的影响</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>回合后减血，不受防御影响，仅受到物理减伤和总减伤的影响</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>回合后减血，不受防御影响，仅受到法术减伤和总减伤的影响</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>回合前减血，不受防御影响，仅受到法术减伤和总减伤的影响</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分别计算</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>效果叠加状况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>无法施展绝技，特殊技能；只能普通攻击</t>
   </si>
   <si>
     <t>不可叠加</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>吕布专属</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>无法一切行动</t>
   </si>
   <si>
     <t>无法进行普通攻击；可施展绝技，特殊技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>不能触发格挡，闪避</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>绝技和特殊技能均无法施展时不能行动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>回合阶段不分敌我进行一次技能系数为1的单体普通攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>孙策专属</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>攻防速的值减少百分之五</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>攻击增加百分之五十</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>易损</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>连环后的所有本方单位之中有人中了异常状态，则其他人均会中该异常状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞统专属</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>致盲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚弱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>于吉专属</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>必中技能无法被治疗，生命低于百分之20直接死亡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中下降100%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术防御下降20%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理防御下降20%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击下降20%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟缓</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>封疗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法回复生命</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾诩专属</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫【致盲】，永久降低20%命中，反击【一定命中】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>断筋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法格挡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>貂蝉专属</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗暴下降50%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>破绽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害减免减少50%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫【弱点】【破绽】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金星，免疫【断筋】【虚弱】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>封怒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝气</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>七杀无法回复怒气</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪狼无法回复法力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏兵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>破军盾无法增加</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>同名不可叠加</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>必中技能，攻击高的一方对攻击低的一方进行一次技能系数为1的单体普通攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度下降20%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避下降100%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>受到所有伤害增加10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>连环后的所有本方单位之中有人中了异常状态，则其他人均会中该异常状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>庞统专属</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>致盲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚弱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>于吉专属</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>必中技能无法被治疗，生命低于百分之20直接死亡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避下降100%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中下降100%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术防御下降20%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理防御下降20%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击下降20%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>迟缓</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度下降20%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>封疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法回复生命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾诩专属</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>必中技能，攻击高的一方对攻击低的一方进行一次技能系数为1的单体普通攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>免疫【致盲】，永久降低20%命中，反击【一定命中】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>断筋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法格挡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>貂蝉专属</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗暴下降50%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>破绽</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击伤害减免减少50%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>免疫【弱点】【破绽】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金星，免疫【断筋】【虚弱】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>封怒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝气</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>七杀无法回复怒气</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪狼无法回复法力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏兵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>破军盾无法增加</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>同名不可叠加</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Profession</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>L1MainAttribute</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>IQ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agile</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physique</t>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LV</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnableWeaponTypes</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>PhysicsDEF</t>
+  </si>
+  <si>
+    <t>MagicDEf</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Hit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dodge</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpposeCritical</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamge</t>
+  </si>
+  <si>
+    <t>CriticalDamgeCounteract</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t>BeHealed</t>
+  </si>
+  <si>
+    <t>Block</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broken</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialAttribute</t>
+  </si>
+  <si>
+    <t>ShieldType</t>
+  </si>
+  <si>
+    <t>技能还未进行设计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_ ;[Red]\-0\ "/>
+  </numFmts>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -8127,8 +9266,32 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8201,8 +9364,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -8210,195 +9378,213 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8413,13 +9599,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -8431,27 +9617,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -8460,19 +9650,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="5" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
     <cellStyle name="常规 3 2" xfId="4"/>
     <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="检查单元格" xfId="5" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -8519,7 +9719,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8551,9 +9751,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8585,6 +9786,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8760,18 +9962,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:X65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="U51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W39" sqref="W39"/>
+      <selection pane="bottomRight" activeCell="V50" sqref="V50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="42.6" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="42.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" style="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="68"/>
@@ -8793,7 +9995,7 @@
     <col min="25" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17.25" customHeight="1">
+    <row r="1" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>255</v>
       </c>
@@ -8867,7 +10069,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="42.6" customHeight="1">
+    <row r="2" spans="1:24" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60">
         <v>1</v>
       </c>
@@ -8942,7 +10144,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="3" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="62">
         <v>2</v>
       </c>
@@ -9017,7 +10219,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="42.6" customHeight="1">
+    <row r="4" spans="1:24" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="60">
         <v>3</v>
       </c>
@@ -9092,7 +10294,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="5" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="62">
         <v>4</v>
       </c>
@@ -9167,7 +10369,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="6" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="62">
         <v>5</v>
       </c>
@@ -9242,7 +10444,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="42.6" customHeight="1">
+    <row r="7" spans="1:24" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="60">
         <v>6</v>
       </c>
@@ -9302,7 +10504,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="8" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="62">
         <v>7</v>
       </c>
@@ -9377,7 +10579,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="9" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="62">
         <v>12</v>
       </c>
@@ -9439,7 +10641,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="10" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="62">
         <v>8</v>
       </c>
@@ -9503,7 +10705,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="11" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="62">
         <v>9</v>
       </c>
@@ -9560,7 +10762,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="12" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="62">
         <v>10</v>
       </c>
@@ -9617,7 +10819,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="13" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="62">
         <v>11</v>
       </c>
@@ -9677,7 +10879,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="14" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="62">
         <v>13</v>
       </c>
@@ -9737,7 +10939,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="15" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="62">
         <v>14</v>
       </c>
@@ -9801,7 +11003,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="16" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="62">
         <v>15</v>
       </c>
@@ -9865,7 +11067,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="17" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="62">
         <v>16</v>
       </c>
@@ -9926,7 +11128,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="18" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="62">
         <v>17</v>
       </c>
@@ -9992,7 +11194,7 @@
         <v>265</v>
       </c>
       <c r="V18" s="43" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="W18" s="62" t="s">
         <v>602</v>
@@ -10001,7 +11203,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="19" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="62">
         <v>18</v>
       </c>
@@ -10076,7 +11278,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="20" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="62">
         <v>19</v>
       </c>
@@ -10148,7 +11350,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="42.6" customHeight="1">
+    <row r="21" spans="1:24" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="60">
         <v>20</v>
       </c>
@@ -10221,7 +11423,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="22" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="62">
         <v>21</v>
       </c>
@@ -10296,7 +11498,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="42.6" customHeight="1">
+    <row r="23" spans="1:24" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="60">
         <v>22</v>
       </c>
@@ -10347,13 +11549,13 @@
         <v>770</v>
       </c>
       <c r="W23" s="43" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="X23" s="43" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="42.6" customHeight="1">
+    <row r="24" spans="1:24" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="60">
         <v>23</v>
       </c>
@@ -10413,7 +11615,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="25" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="25" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="62">
         <v>24</v>
       </c>
@@ -10473,7 +11675,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="26" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="62">
         <v>25</v>
       </c>
@@ -10534,7 +11736,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="27" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="62">
         <v>26</v>
       </c>
@@ -10598,7 +11800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="28" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="62">
         <v>27</v>
       </c>
@@ -10659,7 +11861,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="29" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="62">
         <v>28</v>
       </c>
@@ -10716,7 +11918,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="42.6" hidden="1" customHeight="1">
+    <row r="30" spans="1:24" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="60">
         <v>29</v>
       </c>
@@ -10773,7 +11975,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="31" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="31" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="62">
         <v>30</v>
       </c>
@@ -10837,7 +12039,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="32" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="62">
         <v>31</v>
       </c>
@@ -10897,7 +12099,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="33" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="62">
         <v>32</v>
       </c>
@@ -10957,7 +12159,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="34" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="62">
         <v>33</v>
       </c>
@@ -11023,7 +12225,7 @@
         <v>612</v>
       </c>
       <c r="V34" s="43" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="W34" s="43" t="s">
         <v>688</v>
@@ -11032,7 +12234,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="35" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="62">
         <v>34</v>
       </c>
@@ -11104,7 +12306,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="36" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="62">
         <v>35</v>
       </c>
@@ -11176,7 +12378,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="42.6" customHeight="1">
+    <row r="37" spans="1:24" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="60">
         <v>36</v>
       </c>
@@ -11248,7 +12450,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="38" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="38" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="62">
         <v>37</v>
       </c>
@@ -11320,7 +12522,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="42.6" customHeight="1">
+    <row r="39" spans="1:24" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="60">
         <v>38</v>
       </c>
@@ -11393,7 +12595,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="40" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="62">
         <v>39</v>
       </c>
@@ -11453,7 +12655,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="41" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="62">
         <v>40</v>
       </c>
@@ -11513,7 +12715,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="42.6" hidden="1" customHeight="1">
+    <row r="42" spans="1:24" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="60">
         <v>41</v>
       </c>
@@ -11570,7 +12772,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="42.6" hidden="1" customHeight="1">
+    <row r="43" spans="1:24" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="60">
         <v>42</v>
       </c>
@@ -11627,7 +12829,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="44" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="44" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="62">
         <v>43</v>
       </c>
@@ -11687,7 +12889,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="45" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="62">
         <v>44</v>
       </c>
@@ -11751,7 +12953,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="46" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="46" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="62">
         <v>45</v>
       </c>
@@ -11808,7 +13010,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="47" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="62">
         <v>46</v>
       </c>
@@ -11868,7 +13070,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="48" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="48" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="62">
         <v>47</v>
       </c>
@@ -11929,7 +13131,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="49" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="49" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="62">
         <v>48</v>
       </c>
@@ -11991,7 +13193,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="50" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="50" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="62">
         <v>49</v>
       </c>
@@ -12066,7 +13268,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="51" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="51" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="62">
         <v>50</v>
       </c>
@@ -12138,7 +13340,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="52" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="52" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="62">
         <v>51</v>
       </c>
@@ -12211,7 +13413,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="53" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="53" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="62">
         <v>52</v>
       </c>
@@ -12283,7 +13485,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="54" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="54" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="62">
         <v>53</v>
       </c>
@@ -12358,7 +13560,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="55" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="55" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="62">
         <v>54</v>
       </c>
@@ -12433,7 +13635,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="56" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="56" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="60">
         <v>58</v>
       </c>
@@ -12508,7 +13710,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="57" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1">
+    <row r="57" spans="1:24" s="62" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="62">
         <v>59</v>
       </c>
@@ -12583,7 +13785,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="58" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="58" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="62">
         <v>55</v>
       </c>
@@ -12643,7 +13845,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="42.6" hidden="1" customHeight="1">
+    <row r="59" spans="1:24" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="62">
         <v>56</v>
       </c>
@@ -12705,7 +13907,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="60" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="60" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="62">
         <v>57</v>
       </c>
@@ -12769,7 +13971,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="61" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="61" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="62">
         <v>60</v>
       </c>
@@ -12833,7 +14035,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="62" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="62" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="62">
         <v>61</v>
       </c>
@@ -12890,7 +14092,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="63" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="63" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="62">
         <v>62</v>
       </c>
@@ -12950,7 +14152,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="64" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="64" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="62">
         <v>63</v>
       </c>
@@ -13011,7 +14213,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="65" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
+    <row r="65" spans="1:24" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="62">
         <v>64</v>
       </c>
@@ -13080,27 +14282,221 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH10" sqref="AH10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="83"/>
+    <col min="2" max="4" width="9" style="84"/>
+    <col min="7" max="7" width="12.25" style="85" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="83" customWidth="1"/>
+    <col min="12" max="12" width="9" style="74"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="18" max="18" width="19.625" customWidth="1"/>
+    <col min="21" max="21" width="11.5" customWidth="1"/>
+    <col min="24" max="24" width="9" customWidth="1"/>
+    <col min="27" max="27" width="15.625" customWidth="1"/>
+    <col min="28" max="28" width="12.75" customWidth="1"/>
+    <col min="29" max="29" width="21.625" customWidth="1"/>
+    <col min="34" max="34" width="14.5" customWidth="1"/>
+    <col min="35" max="35" width="10.625" customWidth="1"/>
+    <col min="36" max="36" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
+        <v>906</v>
+      </c>
+      <c r="B1" s="84" t="s">
+        <v>907</v>
+      </c>
+      <c r="C1" s="84" t="s">
+        <v>908</v>
+      </c>
+      <c r="D1" s="84" t="s">
+        <v>909</v>
+      </c>
+      <c r="E1" t="s">
+        <v>910</v>
+      </c>
+      <c r="F1" t="s">
+        <v>911</v>
+      </c>
+      <c r="G1" s="85" t="s">
+        <v>912</v>
+      </c>
+      <c r="H1" t="s">
+        <v>914</v>
+      </c>
+      <c r="I1" t="s">
+        <v>915</v>
+      </c>
+      <c r="J1" s="83" t="s">
+        <v>921</v>
+      </c>
+      <c r="K1" t="s">
+        <v>913</v>
+      </c>
+      <c r="L1" s="74" t="s">
+        <v>922</v>
+      </c>
+      <c r="M1" t="s">
+        <v>916</v>
+      </c>
+      <c r="N1" t="s">
+        <v>917</v>
+      </c>
+      <c r="O1" t="s">
+        <v>918</v>
+      </c>
+      <c r="P1" t="s">
+        <v>919</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>920</v>
+      </c>
+      <c r="R1" t="s">
+        <v>923</v>
+      </c>
+      <c r="S1" t="s">
+        <v>924</v>
+      </c>
+      <c r="T1" t="s">
+        <v>925</v>
+      </c>
+      <c r="U1" t="s">
+        <v>926</v>
+      </c>
+      <c r="V1" t="s">
+        <v>927</v>
+      </c>
+      <c r="W1" t="s">
+        <v>928</v>
+      </c>
+      <c r="X1" t="s">
+        <v>929</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>930</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>931</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>932</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>933</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>934</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>935</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>936</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>937</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>938</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>939</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>940</v>
+      </c>
+      <c r="AJ1" s="86" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="12">
+    <dataValidation type="whole" imeMode="off" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写0-3的整数" sqref="G1:G1048576">
+      <formula1>0</formula1>
+      <formula2>3</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="请输入正确的ID格式" error="1000-9999" sqref="A1:A1048576">
+      <formula1>1000</formula1>
+      <formula2>9999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写1-7的正整数" sqref="K1:K1048576">
+      <formula1>1</formula1>
+      <formula2>7</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写0-4整数" sqref="H1:H1048576">
+      <formula1>0</formula1>
+      <formula2>4</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写0-4整数" sqref="I1:I1048576">
+      <formula1>0</formula1>
+      <formula2>4</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写0-2整数" sqref="J1:J1048576">
+      <formula1>0</formula1>
+      <formula2>2</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写1-255的正整数" sqref="L1:L1048576">
+      <formula1>1</formula1>
+      <formula2>255</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写自然数" sqref="N1:Q1048576 AH1:AH1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写0-3整数" sqref="M1:M1048576">
+      <formula1>0</formula1>
+      <formula2>3</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能输入自然数" sqref="S1:W1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写大于等于0的浮点数" sqref="X1:AG1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写0-2的整数" sqref="AI1:AI1048576">
+      <formula1>0</formula1>
+      <formula2>2</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="27"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="27" customFormat="1">
+    <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="73" t="s">
         <v>827</v>
       </c>
@@ -13114,7 +14510,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -13128,7 +14524,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="73">
         <v>2</v>
       </c>
@@ -13142,7 +14538,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="73">
         <v>3</v>
       </c>
@@ -13156,7 +14552,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="73">
         <v>4</v>
       </c>
@@ -13171,28 +14567,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="75" t="s">
         <v>828</v>
       </c>
       <c r="B1" s="28" t="s">
@@ -13205,7 +14601,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -13217,7 +14613,7 @@
       </c>
       <c r="D2" s="28"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -13229,7 +14625,7 @@
       </c>
       <c r="D3" s="28"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -13241,7 +14637,7 @@
       </c>
       <c r="D4" s="28"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -13253,7 +14649,7 @@
       </c>
       <c r="D5" s="28"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -13265,7 +14661,7 @@
       </c>
       <c r="D6" s="28"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -13277,7 +14673,7 @@
       </c>
       <c r="D7" s="28"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="28">
         <v>9</v>
       </c>
@@ -13289,7 +14685,7 @@
       </c>
       <c r="D8" s="28"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="28">
         <v>10</v>
       </c>
@@ -13301,7 +14697,7 @@
       </c>
       <c r="D9" s="28"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="28">
         <v>11</v>
       </c>
@@ -13313,7 +14709,7 @@
       </c>
       <c r="D10" s="28"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="28">
         <v>12</v>
       </c>
@@ -13325,7 +14721,7 @@
       </c>
       <c r="D11" s="28"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="28">
         <v>14</v>
       </c>
@@ -13337,7 +14733,7 @@
       </c>
       <c r="D12" s="28"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="28">
         <v>15</v>
       </c>
@@ -13349,7 +14745,7 @@
       </c>
       <c r="D13" s="28"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="28">
         <v>16</v>
       </c>
@@ -13361,7 +14757,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="28">
         <v>17</v>
       </c>
@@ -13373,7 +14769,7 @@
       </c>
       <c r="D15" s="28"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="28">
         <v>18</v>
       </c>
@@ -13385,7 +14781,7 @@
       </c>
       <c r="D16" s="28"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="28">
         <v>19</v>
       </c>
@@ -13397,7 +14793,7 @@
       </c>
       <c r="D17" s="28"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="28">
         <v>20</v>
       </c>
@@ -13409,7 +14805,7 @@
       </c>
       <c r="D18" s="28"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="28">
         <v>21</v>
       </c>
@@ -13421,7 +14817,7 @@
       </c>
       <c r="D19" s="28"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="28">
         <v>22</v>
       </c>
@@ -13433,7 +14829,7 @@
       </c>
       <c r="D20" s="28"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="28">
         <v>23</v>
       </c>
@@ -13445,7 +14841,7 @@
       </c>
       <c r="D21" s="28"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="28">
         <v>24</v>
       </c>
@@ -13457,7 +14853,7 @@
       </c>
       <c r="D22" s="28"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="28">
         <v>25</v>
       </c>
@@ -13469,7 +14865,7 @@
       </c>
       <c r="D23" s="28"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="28">
         <v>26</v>
       </c>
@@ -13481,7 +14877,7 @@
       </c>
       <c r="D24" s="28"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="28">
         <v>27</v>
       </c>
@@ -13493,7 +14889,7 @@
       </c>
       <c r="D25" s="28"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="28">
         <v>28</v>
       </c>
@@ -13505,7 +14901,7 @@
       </c>
       <c r="D26" s="28"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="28">
         <v>29</v>
       </c>
@@ -13517,7 +14913,7 @@
       </c>
       <c r="D27" s="28"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="28">
         <v>30</v>
       </c>
@@ -13531,7 +14927,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="28">
         <v>31</v>
       </c>
@@ -13545,7 +14941,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="28">
         <v>32</v>
       </c>
@@ -13559,7 +14955,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="28">
         <v>33</v>
       </c>
@@ -13574,27 +14970,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="75" t="s">
         <v>828</v>
       </c>
       <c r="B1" s="29" t="s">
@@ -13610,7 +15006,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -13625,7 +15021,7 @@
       </c>
       <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -13640,7 +15036,7 @@
       </c>
       <c r="E3" s="29"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -13655,7 +15051,7 @@
       </c>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -13670,7 +15066,7 @@
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -13685,7 +15081,7 @@
       </c>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -13700,7 +15096,7 @@
       </c>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -13715,7 +15111,7 @@
       </c>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -13730,7 +15126,7 @@
       </c>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -13745,7 +15141,7 @@
       </c>
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>10</v>
       </c>
@@ -13760,7 +15156,7 @@
       </c>
       <c r="E11" s="29"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>11</v>
       </c>
@@ -13775,7 +15171,7 @@
       </c>
       <c r="E12" s="29"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>12</v>
       </c>
@@ -13790,7 +15186,7 @@
       </c>
       <c r="E13" s="29"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -13805,7 +15201,7 @@
       </c>
       <c r="E14" s="29"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <v>14</v>
       </c>
@@ -13820,7 +15216,7 @@
       </c>
       <c r="E15" s="29"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>15</v>
       </c>
@@ -13835,7 +15231,7 @@
       </c>
       <c r="E16" s="29"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>16</v>
       </c>
@@ -13849,7 +15245,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>17</v>
       </c>
@@ -13863,7 +15259,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <v>18</v>
       </c>
@@ -13877,7 +15273,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <v>19</v>
       </c>
@@ -13891,7 +15287,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <v>20</v>
       </c>
@@ -13905,7 +15301,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <v>21</v>
       </c>
@@ -13919,7 +15315,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <v>22</v>
       </c>
@@ -13933,7 +15329,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <v>23</v>
       </c>
@@ -13947,7 +15343,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <v>24</v>
       </c>
@@ -13961,7 +15357,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
         <v>25</v>
       </c>
@@ -13976,26 +15372,24 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.125" style="73" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="138.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>850</v>
       </c>
@@ -14003,36 +15397,36 @@
         <v>728</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="75" t="s">
         <v>852</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="69.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="77.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="73" t="s">
         <v>827</v>
       </c>
@@ -14049,7 +15443,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14066,7 +15460,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="73" customFormat="1">
+    <row r="3" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="73">
         <v>2</v>
       </c>
@@ -14083,7 +15477,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="73" customFormat="1">
+    <row r="4" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="73">
         <v>3</v>
       </c>
@@ -14100,7 +15494,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="73" customFormat="1">
+    <row r="5" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="73">
         <v>4</v>
       </c>
@@ -14117,7 +15511,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="73">
         <v>5</v>
       </c>
@@ -14131,10 +15525,10 @@
         <v>864</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="73">
         <v>6</v>
       </c>
@@ -14148,10 +15542,10 @@
         <v>865</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="73">
         <v>7</v>
       </c>
@@ -14163,10 +15557,10 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="73">
         <v>8</v>
       </c>
@@ -14177,10 +15571,10 @@
         <v>866</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="73" customFormat="1">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="73">
         <v>9</v>
       </c>
@@ -14188,16 +15582,16 @@
         <v>870</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>871</v>
+        <v>905</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="73">
         <v>10</v>
       </c>
@@ -14205,16 +15599,16 @@
         <v>837</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>873</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="73">
         <v>11</v>
       </c>
@@ -14222,41 +15616,41 @@
         <v>838</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>878</v>
+        <v>904</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="73" customFormat="1">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="73">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="73" customFormat="1">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="73">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="73">
         <v>14</v>
       </c>
@@ -14264,13 +15658,13 @@
         <v>836</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="73">
         <v>15</v>
       </c>
@@ -14278,125 +15672,125 @@
         <v>843</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="73" customFormat="1">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="73">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>884</v>
+        <v>903</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="73" customFormat="1">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="73">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="73" customFormat="1">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="73">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="73" customFormat="1">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="73">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="73" customFormat="1">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="73">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="73" customFormat="1">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="73">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="73" customFormat="1">
+    </row>
+    <row r="23" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="73">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="73" customFormat="1">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="73">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="73">
         <v>24</v>
       </c>
@@ -14410,10 +15804,10 @@
         <v>861</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="73">
         <v>25</v>
       </c>
@@ -14421,16 +15815,16 @@
         <v>842</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="73">
         <v>26</v>
       </c>
@@ -14438,36 +15832,36 @@
         <v>846</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>892</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>463</v>
       </c>
@@ -14478,16 +15872,16 @@
         <v>465</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="30"/>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="75" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -14496,7 +15890,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -14505,7 +15899,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -14514,7 +15908,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>841</v>
       </c>
@@ -14528,49 +15922,49 @@
         <v>860</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
         <v>5</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
         <v>6</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>7</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>8</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>9</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <v>10</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
         <v>11</v>
       </c>
@@ -14578,20 +15972,20 @@
       <c r="C13" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W136"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H82" sqref="H82:H83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
     <col min="2" max="6" width="9" style="3"/>
@@ -14607,56 +16001,56 @@
     <col min="24" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
       <c r="K1" s="4"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
-      <c r="N1" s="76" t="s">
+      <c r="N1" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="O1" s="74" t="s">
+      <c r="O1" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="79"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="81"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="2" t="s">
         <v>182</v>
       </c>
@@ -14678,7 +16072,7 @@
       <c r="M2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="N2" s="76"/>
+      <c r="N2" s="78"/>
       <c r="O2" s="21" t="s">
         <v>28</v>
       </c>
@@ -14707,7 +16101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="42">
+    <row r="3" spans="1:23" ht="42" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -14780,7 +16174,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="54.75">
+    <row r="4" spans="1:23" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
@@ -14850,7 +16244,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="42">
+    <row r="5" spans="1:23" ht="42" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
@@ -14921,7 +16315,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="41.25">
+    <row r="6" spans="1:23" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
@@ -14976,7 +16370,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
@@ -15019,7 +16413,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="40.5">
+    <row r="8" spans="1:23" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -15068,7 +16462,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="41.25">
+    <row r="9" spans="1:23" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>7</v>
       </c>
@@ -15138,7 +16532,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="41.25">
+    <row r="10" spans="1:23" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
         <v>8</v>
       </c>
@@ -15187,7 +16581,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>9</v>
       </c>
@@ -15227,7 +16621,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="27.75">
+    <row r="12" spans="1:23" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>10</v>
       </c>
@@ -15274,7 +16668,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="41.25">
+    <row r="13" spans="1:23" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>11</v>
       </c>
@@ -15320,7 +16714,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>12</v>
       </c>
@@ -15360,7 +16754,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="41.25">
+    <row r="15" spans="1:23" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>13</v>
       </c>
@@ -15406,7 +16800,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="27.75">
+    <row r="16" spans="1:23" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>14</v>
       </c>
@@ -15452,7 +16846,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
         <v>15</v>
       </c>
@@ -15498,7 +16892,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="42">
+    <row r="18" spans="1:23" ht="42" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
         <v>16</v>
       </c>
@@ -15547,7 +16941,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>17</v>
       </c>
@@ -15590,7 +16984,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
@@ -15636,7 +17030,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>19</v>
       </c>
@@ -15676,7 +17070,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="42">
+    <row r="22" spans="1:23" ht="42" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>20</v>
       </c>
@@ -15722,7 +17116,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
@@ -15762,7 +17156,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="41.25">
+    <row r="24" spans="1:23" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
         <v>22</v>
       </c>
@@ -15805,7 +17199,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="42">
+    <row r="25" spans="1:23" ht="42" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
         <v>23</v>
       </c>
@@ -15857,7 +17251,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="41.25">
+    <row r="26" spans="1:23" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
         <v>24</v>
       </c>
@@ -15900,7 +17294,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>25</v>
       </c>
@@ -15928,7 +17322,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>26</v>
       </c>
@@ -15956,7 +17350,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>45</v>
       </c>
@@ -15980,7 +17374,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>46</v>
       </c>
@@ -16005,7 +17399,7 @@
       </c>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>47</v>
       </c>
@@ -16032,7 +17426,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>48</v>
       </c>
@@ -16056,7 +17450,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
         <v>49</v>
       </c>
@@ -16083,7 +17477,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
         <v>50</v>
       </c>
@@ -16107,7 +17501,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>51</v>
       </c>
@@ -16134,7 +17528,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>52</v>
       </c>
@@ -16158,7 +17552,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
         <v>53</v>
       </c>
@@ -16182,7 +17576,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>54</v>
       </c>
@@ -16209,7 +17603,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
         <v>65</v>
       </c>
@@ -16236,7 +17630,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>66</v>
       </c>
@@ -16260,7 +17654,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>67</v>
       </c>
@@ -16284,7 +17678,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>68</v>
       </c>
@@ -16308,7 +17702,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>69</v>
       </c>
@@ -16332,7 +17726,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
         <v>70</v>
       </c>
@@ -16359,7 +17753,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
         <v>71</v>
       </c>
@@ -16383,7 +17777,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
         <v>72</v>
       </c>
@@ -16407,7 +17801,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>73</v>
       </c>
@@ -16431,7 +17825,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
         <v>74</v>
       </c>
@@ -16455,7 +17849,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
         <v>84</v>
       </c>
@@ -16479,7 +17873,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
         <v>85</v>
       </c>
@@ -16506,7 +17900,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
         <v>86</v>
       </c>
@@ -16530,7 +17924,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>87</v>
       </c>
@@ -16554,7 +17948,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
         <v>88</v>
       </c>
@@ -16581,7 +17975,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
         <v>89</v>
       </c>
@@ -16605,7 +17999,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
         <v>90</v>
       </c>
@@ -16632,7 +18026,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
         <v>91</v>
       </c>
@@ -16659,7 +18053,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
         <v>92</v>
       </c>
@@ -16683,7 +18077,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="24" t="s">
         <v>93</v>
       </c>
@@ -16707,7 +18101,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="24" t="s">
         <v>104</v>
       </c>
@@ -16734,7 +18128,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="24" t="s">
         <v>105</v>
       </c>
@@ -16758,7 +18152,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="24" t="s">
         <v>106</v>
       </c>
@@ -16785,7 +18179,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
         <v>107</v>
       </c>
@@ -16809,7 +18203,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
         <v>108</v>
       </c>
@@ -16836,7 +18230,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
         <v>109</v>
       </c>
@@ -16860,7 +18254,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
         <v>110</v>
       </c>
@@ -16887,7 +18281,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
         <v>111</v>
       </c>
@@ -16914,7 +18308,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="24" t="s">
         <v>112</v>
       </c>
@@ -16941,7 +18335,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="18" t="s">
         <v>113</v>
       </c>
@@ -16968,7 +18362,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
         <v>55</v>
       </c>
@@ -16992,7 +18386,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="24" t="s">
         <v>56</v>
       </c>
@@ -17016,7 +18410,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
         <v>57</v>
       </c>
@@ -17040,7 +18434,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
         <v>58</v>
       </c>
@@ -17064,7 +18458,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
         <v>59</v>
       </c>
@@ -17091,7 +18485,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
         <v>60</v>
       </c>
@@ -17115,7 +18509,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
         <v>61</v>
       </c>
@@ -17142,7 +18536,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
         <v>62</v>
       </c>
@@ -17166,7 +18560,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="18" t="s">
         <v>63</v>
       </c>
@@ -17190,7 +18584,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="24" t="s">
         <v>64</v>
       </c>
@@ -17214,7 +18608,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
         <v>75</v>
       </c>
@@ -17238,7 +18632,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
         <v>76</v>
       </c>
@@ -17262,7 +18656,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
         <v>77</v>
       </c>
@@ -17286,7 +18680,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
         <v>78</v>
       </c>
@@ -17308,7 +18702,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="26" t="s">
         <v>254</v>
       </c>
@@ -17330,7 +18724,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="25" t="s">
         <v>79</v>
       </c>
@@ -17349,7 +18743,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="24" t="s">
         <v>80</v>
       </c>
@@ -17368,7 +18762,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="18" t="s">
         <v>81</v>
       </c>
@@ -17387,7 +18781,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="18" t="s">
         <v>82</v>
       </c>
@@ -17406,7 +18800,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
         <v>83</v>
       </c>
@@ -17425,7 +18819,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
         <v>94</v>
       </c>
@@ -17444,7 +18838,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="18" t="s">
         <v>95</v>
       </c>
@@ -17463,7 +18857,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
         <v>96</v>
       </c>
@@ -17482,7 +18876,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="24" t="s">
         <v>97</v>
       </c>
@@ -17501,7 +18895,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="25" t="s">
         <v>98</v>
       </c>
@@ -17520,7 +18914,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="18" t="s">
         <v>99</v>
       </c>
@@ -17539,7 +18933,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="18" t="s">
         <v>100</v>
       </c>
@@ -17558,7 +18952,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
         <v>101</v>
       </c>
@@ -17577,7 +18971,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="18" t="s">
         <v>102</v>
       </c>
@@ -17596,7 +18990,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
         <v>103</v>
       </c>
@@ -17615,7 +19009,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="24" t="s">
         <v>114</v>
       </c>
@@ -17634,7 +19028,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="24" t="s">
         <v>115</v>
       </c>
@@ -17653,7 +19047,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
         <v>116</v>
       </c>
@@ -17672,7 +19066,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
         <v>117</v>
       </c>
@@ -17691,7 +19085,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="18" t="s">
         <v>118</v>
       </c>
@@ -17710,7 +19104,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="18" t="s">
         <v>119</v>
       </c>
@@ -17729,7 +19123,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="24" t="s">
         <v>120</v>
       </c>
@@ -17748,7 +19142,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="18" t="s">
         <v>121</v>
       </c>
@@ -17767,7 +19161,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="24" t="s">
         <v>122</v>
       </c>
@@ -17786,7 +19180,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="18" t="s">
         <v>123</v>
       </c>
@@ -17805,7 +19199,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="109" spans="1:16" s="17" customFormat="1">
+    <row r="109" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
         <v>126</v>
       </c>
@@ -17824,7 +19218,7 @@
       <c r="O109" s="23"/>
       <c r="P109" s="23"/>
     </row>
-    <row r="110" spans="1:16" s="17" customFormat="1">
+    <row r="110" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
         <v>128</v>
       </c>
@@ -17843,7 +19237,7 @@
       <c r="O110" s="23"/>
       <c r="P110" s="23"/>
     </row>
-    <row r="111" spans="1:16" s="17" customFormat="1">
+    <row r="111" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>129</v>
       </c>
@@ -17862,7 +19256,7 @@
       <c r="O111" s="23"/>
       <c r="P111" s="23"/>
     </row>
-    <row r="112" spans="1:16" s="17" customFormat="1">
+    <row r="112" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
         <v>130</v>
       </c>
@@ -17881,7 +19275,7 @@
       <c r="O112" s="23"/>
       <c r="P112" s="23"/>
     </row>
-    <row r="113" spans="1:16" s="17" customFormat="1">
+    <row r="113" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
         <v>131</v>
       </c>
@@ -17900,7 +19294,7 @@
       <c r="O113" s="23"/>
       <c r="P113" s="23"/>
     </row>
-    <row r="114" spans="1:16" s="17" customFormat="1">
+    <row r="114" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>132</v>
       </c>
@@ -17919,7 +19313,7 @@
       <c r="O114" s="23"/>
       <c r="P114" s="23"/>
     </row>
-    <row r="115" spans="1:16" s="17" customFormat="1">
+    <row r="115" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>133</v>
       </c>
@@ -17937,7 +19331,7 @@
       <c r="O115" s="23"/>
       <c r="P115" s="23"/>
     </row>
-    <row r="116" spans="1:16" s="17" customFormat="1">
+    <row r="116" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
         <v>134</v>
       </c>
@@ -17955,7 +19349,7 @@
       <c r="O116" s="23"/>
       <c r="P116" s="23"/>
     </row>
-    <row r="117" spans="1:16" s="17" customFormat="1">
+    <row r="117" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>135</v>
       </c>
@@ -17973,7 +19367,7 @@
       <c r="O117" s="23"/>
       <c r="P117" s="23"/>
     </row>
-    <row r="118" spans="1:16" s="17" customFormat="1">
+    <row r="118" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
         <v>136</v>
       </c>
@@ -17991,7 +19385,7 @@
       <c r="O118" s="23"/>
       <c r="P118" s="23"/>
     </row>
-    <row r="119" spans="1:16" s="17" customFormat="1">
+    <row r="119" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>137</v>
       </c>
@@ -18009,7 +19403,7 @@
       <c r="O119" s="23"/>
       <c r="P119" s="23"/>
     </row>
-    <row r="120" spans="1:16" s="17" customFormat="1">
+    <row r="120" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>138</v>
       </c>
@@ -18027,7 +19421,7 @@
       <c r="O120" s="23"/>
       <c r="P120" s="23"/>
     </row>
-    <row r="121" spans="1:16" s="17" customFormat="1">
+    <row r="121" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
         <v>139</v>
       </c>
@@ -18045,7 +19439,7 @@
       <c r="O121" s="23"/>
       <c r="P121" s="23"/>
     </row>
-    <row r="122" spans="1:16" s="17" customFormat="1">
+    <row r="122" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="24" t="s">
         <v>140</v>
       </c>
@@ -18063,7 +19457,7 @@
       <c r="O122" s="23"/>
       <c r="P122" s="23"/>
     </row>
-    <row r="123" spans="1:16" s="17" customFormat="1">
+    <row r="123" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>141</v>
       </c>
@@ -18081,7 +19475,7 @@
       <c r="O123" s="23"/>
       <c r="P123" s="23"/>
     </row>
-    <row r="124" spans="1:16" s="17" customFormat="1">
+    <row r="124" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
         <v>142</v>
       </c>
@@ -18099,7 +19493,7 @@
       <c r="O124" s="23"/>
       <c r="P124" s="23"/>
     </row>
-    <row r="125" spans="1:16" s="17" customFormat="1">
+    <row r="125" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>143</v>
       </c>
@@ -18117,7 +19511,7 @@
       <c r="O125" s="23"/>
       <c r="P125" s="23"/>
     </row>
-    <row r="126" spans="1:16" s="17" customFormat="1">
+    <row r="126" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
         <v>144</v>
       </c>
@@ -18135,7 +19529,7 @@
       <c r="O126" s="23"/>
       <c r="P126" s="23"/>
     </row>
-    <row r="127" spans="1:16" s="17" customFormat="1">
+    <row r="127" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
         <v>145</v>
       </c>
@@ -18153,7 +19547,7 @@
       <c r="O127" s="23"/>
       <c r="P127" s="23"/>
     </row>
-    <row r="128" spans="1:16" s="17" customFormat="1">
+    <row r="128" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
         <v>146</v>
       </c>
@@ -18171,7 +19565,7 @@
       <c r="O128" s="23"/>
       <c r="P128" s="23"/>
     </row>
-    <row r="129" spans="1:16" s="17" customFormat="1">
+    <row r="129" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
         <v>147</v>
       </c>
@@ -18189,7 +19583,7 @@
       <c r="O129" s="23"/>
       <c r="P129" s="23"/>
     </row>
-    <row r="130" spans="1:16" s="17" customFormat="1">
+    <row r="130" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>148</v>
       </c>
@@ -18207,7 +19601,7 @@
       <c r="O130" s="23"/>
       <c r="P130" s="23"/>
     </row>
-    <row r="131" spans="1:16" s="17" customFormat="1">
+    <row r="131" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>149</v>
       </c>
@@ -18225,7 +19619,7 @@
       <c r="O131" s="23"/>
       <c r="P131" s="23"/>
     </row>
-    <row r="132" spans="1:16" s="17" customFormat="1">
+    <row r="132" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
         <v>150</v>
       </c>
@@ -18243,7 +19637,7 @@
       <c r="O132" s="23"/>
       <c r="P132" s="23"/>
     </row>
-    <row r="133" spans="1:16" s="17" customFormat="1">
+    <row r="133" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>151</v>
       </c>
@@ -18261,7 +19655,7 @@
       <c r="O133" s="23"/>
       <c r="P133" s="23"/>
     </row>
-    <row r="134" spans="1:16" s="17" customFormat="1">
+    <row r="134" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
         <v>152</v>
       </c>
@@ -18279,7 +19673,7 @@
       <c r="O134" s="23"/>
       <c r="P134" s="23"/>
     </row>
-    <row r="135" spans="1:16" s="17" customFormat="1">
+    <row r="135" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
         <v>153</v>
       </c>
@@ -18297,7 +19691,7 @@
       <c r="O135" s="23"/>
       <c r="P135" s="23"/>
     </row>
-    <row r="136" spans="1:16" s="17" customFormat="1">
+    <row r="136" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
         <v>154</v>
       </c>
@@ -18317,7 +19711,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:X136">
-    <filterColumn colId="3"/>
     <filterColumn colId="6" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
@@ -18341,7 +19734,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Document/武将技能及晋升资质.xlsx
+++ b/Document/武将技能及晋升资质.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="一阶段" sheetId="4" r:id="rId1"/>
@@ -1022,7 +1022,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="947">
   <si>
     <t>四维</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -5973,10 +5973,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>大风天气下，自身的【灼烧】效果加倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>自身免疫【攻击降低】效果，免疫全队大风天气的负面影响</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -8831,354 +8827,468 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>分别计算</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果叠加状况</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法施展绝技，特殊技能；只能普通攻击</t>
+  </si>
+  <si>
+    <t>不可叠加</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布专属</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法一切行动</t>
+  </si>
+  <si>
+    <t>无法进行普通攻击；可施展绝技，特殊技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能触发格挡，闪避</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝技和特殊技能均无法施展时不能行动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合阶段不分敌我进行一次技能系数为1的单体普通攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙策专属</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻防速的值减少百分之五</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击增加百分之五十</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>易损</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>连环后的所有本方单位之中有人中了异常状态，则其他人均会中该异常状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞统专属</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>致盲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚弱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>于吉专属</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>必中技能无法被治疗，生命低于百分之20直接死亡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中下降100%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术防御下降20%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理防御下降20%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击下降20%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟缓</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>封疗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法回复生命</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾诩专属</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫【致盲】，永久降低20%命中，反击【一定命中】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>断筋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法格挡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>貂蝉专属</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗暴下降50%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>破绽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害减免减少50%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫【弱点】【破绽】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金星，免疫【断筋】【虚弱】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>封怒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝气</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>七杀无法回复怒气</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪狼无法回复法力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏兵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>破军盾无法增加</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>同名不可叠加</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>必中技能，攻击高的一方对攻击低的一方进行一次技能系数为1的单体普通攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度下降20%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避下降100%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到所有伤害增加10%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Profession</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>L1MainAttribute</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>IQ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agile</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physique</t>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LV</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnableWeaponTypes</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>PhysicsDEF</t>
+  </si>
+  <si>
+    <t>MagicDEf</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Hit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dodge</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpposeCritical</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamge</t>
+  </si>
+  <si>
+    <t>CriticalDamgeCounteract</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t>BeHealed</t>
+  </si>
+  <si>
+    <t>Block</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broken</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialAttribute</t>
+  </si>
+  <si>
+    <t>ShieldType</t>
+  </si>
+  <si>
+    <t>技能还未进行设计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大风天气下，友方的【灼烧】效果加倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复类战斗公式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>{我方攻击力X技能系数X[1+(我方攻击对应属性-对方对应属性)%]}X(1+我方增伤百分比-对方减伤百分比)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>回合前减血，不受防御影响，仅受到物理减伤和总减伤的影响</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合后减血，不受防御影响，仅受到物理减伤和总减伤的影响</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合后减血，不受防御影响，仅受到法术减伤和总减伤的影响</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合前减血，不受防御影响，仅受到法术减伤和总减伤的影响</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>分别计算</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果叠加状况</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法施展绝技，特殊技能；只能普通攻击</t>
-  </si>
-  <si>
-    <t>不可叠加</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕布专属</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法一切行动</t>
-  </si>
-  <si>
-    <t>无法进行普通攻击；可施展绝技，特殊技能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能触发格挡，闪避</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝技和特殊技能均无法施展时不能行动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合阶段不分敌我进行一次技能系数为1的单体普通攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙策专属</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻防速的值减少百分之五</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击增加百分之五十</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>易损</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>连环后的所有本方单位之中有人中了异常状态，则其他人均会中该异常状态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>庞统专属</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>致盲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚弱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>于吉专属</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>必中技能无法被治疗，生命低于百分之20直接死亡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中下降100%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术防御下降20%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理防御下降20%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击下降20%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>迟缓</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>封疗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法回复生命</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾诩专属</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>免疫【致盲】，永久降低20%命中，反击【一定命中】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>断筋</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法格挡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>貂蝉专属</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗暴下降50%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>破绽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击伤害减免减少50%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>免疫【弱点】【破绽】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金星，免疫【断筋】【虚弱】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>封怒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝气</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>七杀无法回复怒气</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪狼无法回复法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏兵</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>破军盾无法增加</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>同名不可叠加</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>必中技能，攻击高的一方对攻击低的一方进行一次技能系数为1的单体普通攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度下降20%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避下降100%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到所有伤害增加10%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Texture</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Profession</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>L1MainAttribute</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>IQ</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Agile</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Physique</t>
-  </si>
-  <si>
-    <t>Sex</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LV</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnableWeaponTypes</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>PhysicsDEF</t>
-  </si>
-  <si>
-    <t>MagicDEf</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Hit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dodge</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Critical</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpposeCritical</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriticalDamge</t>
-  </si>
-  <si>
-    <t>CriticalDamgeCounteract</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heal</t>
-  </si>
-  <si>
-    <t>BeHealed</t>
-  </si>
-  <si>
-    <t>Block</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Broken</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpecialAttribute</t>
-  </si>
-  <si>
-    <t>ShieldType</t>
-  </si>
-  <si>
-    <t>技能还未进行设计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我方攻击力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能系数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X[1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我方攻击对应属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%]}X(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我方治疗率百分比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>友方被治疗率百分比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合后减血，不受防御影响，仅受到法术减伤和总减伤的影响，该效果存在时不会被暴击闪避格挡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合前减血，不受防御影响，仅受到法术减伤和总减伤的影响，该效果存在时不会被暴击闪避格挡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合后减血，不受防御影响，仅受到物理减伤和总减伤的影响，该效果存在时不会被暴击闪避格挡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合前减血，不受防御影响，仅受到物理减伤和总减伤的影响，该效果存在时不会被暴击闪避格挡</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -9419,7 +9529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9643,6 +9753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -9661,6 +9772,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -9972,11 +10092,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
+      <selection pane="bottomRight" activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42.6" customHeight="1"/>
@@ -10009,7 +10129,7 @@
         <v>161</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="D1" s="48" t="s">
         <v>296</v>
@@ -10042,7 +10162,7 @@
         <v>44</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="O1" s="56" t="s">
         <v>171</v>
@@ -10086,7 +10206,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>298</v>
@@ -10129,28 +10249,28 @@
         <v>295</v>
       </c>
       <c r="Q2" s="71" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="R2" s="71" t="s">
+        <v>624</v>
+      </c>
+      <c r="S2" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="S2" s="60" t="s">
-        <v>626</v>
-      </c>
       <c r="T2" s="43" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U2" s="62" t="s">
+        <v>621</v>
+      </c>
+      <c r="V2" s="49" t="s">
         <v>622</v>
       </c>
-      <c r="V2" s="49" t="s">
+      <c r="W2" s="60" t="s">
         <v>623</v>
       </c>
-      <c r="W2" s="60" t="s">
-        <v>624</v>
-      </c>
       <c r="X2" s="49" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y2" s="62" t="s">
         <v>261</v>
@@ -10164,7 +10284,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>345</v>
@@ -10204,7 +10324,7 @@
         <v>172</v>
       </c>
       <c r="P3" s="43" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="Q3" s="43" t="s">
         <v>392</v>
@@ -10213,25 +10333,25 @@
         <v>447</v>
       </c>
       <c r="S3" s="43" t="s">
+        <v>594</v>
+      </c>
+      <c r="T3" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="U3" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="V3" s="43" t="s">
         <v>595</v>
       </c>
-      <c r="T3" s="62" t="s">
-        <v>599</v>
-      </c>
-      <c r="U3" s="62" t="s">
-        <v>597</v>
-      </c>
-      <c r="V3" s="43" t="s">
-        <v>596</v>
-      </c>
       <c r="W3" s="43" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="X3" s="43" t="s">
         <v>588</v>
       </c>
       <c r="Y3" s="43" t="s">
-        <v>592</v>
+        <v>939</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="42.6" customHeight="1">
@@ -10242,7 +10362,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>304</v>
@@ -10282,34 +10402,34 @@
         <v>176</v>
       </c>
       <c r="P4" s="43" t="s">
+        <v>718</v>
+      </c>
+      <c r="Q4" s="48" t="s">
+        <v>723</v>
+      </c>
+      <c r="R4" s="48" t="s">
+        <v>722</v>
+      </c>
+      <c r="S4" s="43" t="s">
+        <v>721</v>
+      </c>
+      <c r="T4" s="43" t="s">
         <v>719</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="U4" s="62" t="s">
+        <v>790</v>
+      </c>
+      <c r="V4" s="43" t="s">
         <v>724</v>
       </c>
-      <c r="R4" s="48" t="s">
-        <v>723</v>
-      </c>
-      <c r="S4" s="43" t="s">
-        <v>722</v>
-      </c>
-      <c r="T4" s="43" t="s">
+      <c r="W4" s="43" t="s">
         <v>720</v>
       </c>
-      <c r="U4" s="62" t="s">
-        <v>791</v>
-      </c>
-      <c r="V4" s="43" t="s">
+      <c r="X4" s="43" t="s">
+        <v>726</v>
+      </c>
+      <c r="Y4" s="43" t="s">
         <v>725</v>
-      </c>
-      <c r="W4" s="43" t="s">
-        <v>721</v>
-      </c>
-      <c r="X4" s="43" t="s">
-        <v>727</v>
-      </c>
-      <c r="Y4" s="43" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="62" customFormat="1" ht="42.6" customHeight="1">
@@ -10320,7 +10440,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>346</v>
@@ -10360,34 +10480,34 @@
         <v>172</v>
       </c>
       <c r="P5" s="43" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q5" s="43" t="s">
+        <v>695</v>
+      </c>
+      <c r="R5" s="43" t="s">
+        <v>694</v>
+      </c>
+      <c r="S5" s="43" t="s">
+        <v>732</v>
+      </c>
+      <c r="T5" s="43" t="s">
+        <v>697</v>
+      </c>
+      <c r="U5" s="62" t="s">
+        <v>701</v>
+      </c>
+      <c r="V5" s="43" t="s">
+        <v>700</v>
+      </c>
+      <c r="W5" s="43" t="s">
         <v>731</v>
       </c>
-      <c r="Q5" s="43" t="s">
+      <c r="X5" s="43" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y5" s="43" t="s">
         <v>696</v>
-      </c>
-      <c r="R5" s="43" t="s">
-        <v>695</v>
-      </c>
-      <c r="S5" s="43" t="s">
-        <v>733</v>
-      </c>
-      <c r="T5" s="43" t="s">
-        <v>698</v>
-      </c>
-      <c r="U5" s="62" t="s">
-        <v>702</v>
-      </c>
-      <c r="V5" s="43" t="s">
-        <v>701</v>
-      </c>
-      <c r="W5" s="43" t="s">
-        <v>732</v>
-      </c>
-      <c r="X5" s="43" t="s">
-        <v>730</v>
-      </c>
-      <c r="Y5" s="43" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="62" customFormat="1" ht="42.6" customHeight="1">
@@ -10398,7 +10518,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>348</v>
@@ -10453,7 +10573,7 @@
         <v>376</v>
       </c>
       <c r="U6" s="62" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="V6" s="62" t="s">
         <v>379</v>
@@ -10476,7 +10596,7 @@
         <v>88</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>297</v>
@@ -10501,34 +10621,34 @@
         <v>172</v>
       </c>
       <c r="P7" s="43" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="Q7" s="48" t="s">
+        <v>775</v>
+      </c>
+      <c r="R7" s="48" t="s">
         <v>776</v>
       </c>
-      <c r="R7" s="48" t="s">
+      <c r="S7" s="43" t="s">
         <v>777</v>
       </c>
-      <c r="S7" s="43" t="s">
-        <v>778</v>
-      </c>
       <c r="T7" s="43" t="s">
+        <v>779</v>
+      </c>
+      <c r="U7" s="62" t="s">
+        <v>773</v>
+      </c>
+      <c r="V7" s="43" t="s">
+        <v>782</v>
+      </c>
+      <c r="W7" s="43" t="s">
         <v>780</v>
       </c>
-      <c r="U7" s="62" t="s">
+      <c r="X7" s="43" t="s">
+        <v>781</v>
+      </c>
+      <c r="Y7" s="43" t="s">
         <v>774</v>
-      </c>
-      <c r="V7" s="43" t="s">
-        <v>783</v>
-      </c>
-      <c r="W7" s="43" t="s">
-        <v>781</v>
-      </c>
-      <c r="X7" s="43" t="s">
-        <v>782</v>
-      </c>
-      <c r="Y7" s="43" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:25" s="62" customFormat="1" ht="42.6" customHeight="1">
@@ -10539,7 +10659,7 @@
         <v>90</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>389</v>
@@ -10617,7 +10737,7 @@
         <v>92</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>320</v>
@@ -10653,7 +10773,7 @@
         <v>400</v>
       </c>
       <c r="S9" s="43" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="T9" s="43" t="s">
         <v>399</v>
@@ -10944,7 +11064,7 @@
         <v>173</v>
       </c>
       <c r="O14" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="P14" s="43" t="s">
         <v>445</v>
@@ -11177,7 +11297,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>303</v>
@@ -11238,10 +11358,10 @@
         <v>265</v>
       </c>
       <c r="W18" s="43" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="X18" s="62" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="Y18" s="62" t="s">
         <v>266</v>
@@ -11255,7 +11375,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>336</v>
@@ -11295,19 +11415,19 @@
         <v>172</v>
       </c>
       <c r="P19" s="62" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Q19" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="R19" s="43" t="s">
         <v>589</v>
       </c>
       <c r="S19" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T19" s="62" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="U19" s="62" t="s">
         <v>267</v>
@@ -11316,13 +11436,13 @@
         <v>268</v>
       </c>
       <c r="W19" s="43" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="X19" s="62" t="s">
         <v>587</v>
       </c>
       <c r="Y19" s="62" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:25" s="62" customFormat="1" ht="42.6" customHeight="1">
@@ -11333,7 +11453,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>308</v>
@@ -11370,34 +11490,34 @@
         <v>173</v>
       </c>
       <c r="P20" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q20" s="43" t="s">
+        <v>813</v>
+      </c>
+      <c r="R20" s="43" t="s">
+        <v>753</v>
+      </c>
+      <c r="S20" s="62" t="s">
         <v>676</v>
       </c>
-      <c r="Q20" s="43" t="s">
-        <v>814</v>
-      </c>
-      <c r="R20" s="43" t="s">
-        <v>754</v>
-      </c>
-      <c r="S20" s="62" t="s">
+      <c r="T20" s="62" t="s">
         <v>677</v>
-      </c>
-      <c r="T20" s="62" t="s">
-        <v>678</v>
       </c>
       <c r="U20" s="62" t="s">
         <v>269</v>
       </c>
       <c r="V20" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="W20" s="62" t="s">
         <v>679</v>
       </c>
-      <c r="W20" s="62" t="s">
+      <c r="X20" s="43" t="s">
         <v>680</v>
       </c>
-      <c r="X20" s="43" t="s">
-        <v>681</v>
-      </c>
       <c r="Y20" s="62" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="42.6" customHeight="1">
@@ -11408,7 +11528,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>331</v>
@@ -11446,34 +11566,34 @@
       </c>
       <c r="O21" s="49"/>
       <c r="P21" s="43" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q21" s="48" t="s">
+        <v>820</v>
+      </c>
+      <c r="R21" s="48" t="s">
+        <v>821</v>
+      </c>
+      <c r="S21" s="43" t="s">
+        <v>824</v>
+      </c>
+      <c r="T21" s="43" t="s">
+        <v>823</v>
+      </c>
+      <c r="U21" s="43" t="s">
+        <v>763</v>
+      </c>
+      <c r="V21" s="43" t="s">
+        <v>764</v>
+      </c>
+      <c r="W21" s="43" t="s">
+        <v>737</v>
+      </c>
+      <c r="X21" s="43" t="s">
         <v>819</v>
       </c>
-      <c r="Q21" s="48" t="s">
-        <v>821</v>
-      </c>
-      <c r="R21" s="48" t="s">
+      <c r="Y21" s="43" t="s">
         <v>822</v>
-      </c>
-      <c r="S21" s="43" t="s">
-        <v>825</v>
-      </c>
-      <c r="T21" s="43" t="s">
-        <v>824</v>
-      </c>
-      <c r="U21" s="43" t="s">
-        <v>764</v>
-      </c>
-      <c r="V21" s="43" t="s">
-        <v>765</v>
-      </c>
-      <c r="W21" s="43" t="s">
-        <v>738</v>
-      </c>
-      <c r="X21" s="43" t="s">
-        <v>820</v>
-      </c>
-      <c r="Y21" s="43" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="22" spans="1:25" s="62" customFormat="1" ht="42.6" customHeight="1">
@@ -11484,7 +11604,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D22" s="64" t="s">
         <v>311</v>
@@ -11524,7 +11644,7 @@
         <v>175</v>
       </c>
       <c r="P22" s="43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q22" s="43" t="s">
         <v>443</v>
@@ -11542,16 +11662,16 @@
         <v>270</v>
       </c>
       <c r="V22" s="43" t="s">
+        <v>761</v>
+      </c>
+      <c r="W22" s="43" t="s">
+        <v>760</v>
+      </c>
+      <c r="X22" s="43" t="s">
+        <v>807</v>
+      </c>
+      <c r="Y22" s="43" t="s">
         <v>762</v>
-      </c>
-      <c r="W22" s="43" t="s">
-        <v>761</v>
-      </c>
-      <c r="X22" s="43" t="s">
-        <v>808</v>
-      </c>
-      <c r="Y22" s="43" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="42.6" customHeight="1">
@@ -11562,7 +11682,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D23" s="36" t="s">
         <v>306</v>
@@ -11584,34 +11704,34 @@
         <v>175</v>
       </c>
       <c r="P23" s="43" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q23" s="48" t="s">
+        <v>804</v>
+      </c>
+      <c r="R23" s="48" t="s">
+        <v>802</v>
+      </c>
+      <c r="S23" s="43" t="s">
+        <v>800</v>
+      </c>
+      <c r="T23" s="43" t="s">
+        <v>803</v>
+      </c>
+      <c r="U23" s="43" t="s">
+        <v>801</v>
+      </c>
+      <c r="V23" s="43" t="s">
+        <v>724</v>
+      </c>
+      <c r="W23" s="43" t="s">
+        <v>769</v>
+      </c>
+      <c r="X23" s="43" t="s">
+        <v>879</v>
+      </c>
+      <c r="Y23" s="43" t="s">
         <v>806</v>
-      </c>
-      <c r="Q23" s="48" t="s">
-        <v>805</v>
-      </c>
-      <c r="R23" s="48" t="s">
-        <v>803</v>
-      </c>
-      <c r="S23" s="43" t="s">
-        <v>801</v>
-      </c>
-      <c r="T23" s="43" t="s">
-        <v>804</v>
-      </c>
-      <c r="U23" s="43" t="s">
-        <v>802</v>
-      </c>
-      <c r="V23" s="43" t="s">
-        <v>725</v>
-      </c>
-      <c r="W23" s="43" t="s">
-        <v>770</v>
-      </c>
-      <c r="X23" s="43" t="s">
-        <v>885</v>
-      </c>
-      <c r="Y23" s="43" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="42.6" customHeight="1">
@@ -11622,7 +11742,7 @@
         <v>49</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>319</v>
@@ -11647,34 +11767,34 @@
         <v>174</v>
       </c>
       <c r="P24" s="43" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="Q24" s="48" t="s">
+        <v>795</v>
+      </c>
+      <c r="R24" s="71" t="s">
+        <v>753</v>
+      </c>
+      <c r="S24" s="43" t="s">
         <v>796</v>
       </c>
-      <c r="R24" s="71" t="s">
-        <v>754</v>
-      </c>
-      <c r="S24" s="43" t="s">
+      <c r="T24" s="43" t="s">
+        <v>794</v>
+      </c>
+      <c r="U24" s="62" t="s">
         <v>797</v>
       </c>
-      <c r="T24" s="43" t="s">
-        <v>795</v>
-      </c>
-      <c r="U24" s="62" t="s">
+      <c r="V24" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="W24" s="43" t="s">
+        <v>777</v>
+      </c>
+      <c r="X24" s="43" t="s">
+        <v>771</v>
+      </c>
+      <c r="Y24" s="43" t="s">
         <v>798</v>
-      </c>
-      <c r="V24" s="43" t="s">
-        <v>660</v>
-      </c>
-      <c r="W24" s="43" t="s">
-        <v>778</v>
-      </c>
-      <c r="X24" s="43" t="s">
-        <v>772</v>
-      </c>
-      <c r="Y24" s="43" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="25" spans="1:25" s="62" customFormat="1" ht="42.6" customHeight="1">
@@ -11685,7 +11805,7 @@
         <v>50</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D25" s="37" t="s">
         <v>309</v>
@@ -11707,37 +11827,37 @@
         <v>173</v>
       </c>
       <c r="O25" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="P25" s="43" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q25" s="43" t="s">
+        <v>768</v>
+      </c>
+      <c r="R25" s="43" t="s">
+        <v>739</v>
+      </c>
+      <c r="S25" s="62" t="s">
         <v>766</v>
       </c>
-      <c r="Q25" s="43" t="s">
+      <c r="T25" s="43" t="s">
         <v>769</v>
       </c>
-      <c r="R25" s="43" t="s">
-        <v>740</v>
-      </c>
-      <c r="S25" s="62" t="s">
+      <c r="U25" s="43" t="s">
+        <v>808</v>
+      </c>
+      <c r="V25" s="43" t="s">
+        <v>772</v>
+      </c>
+      <c r="W25" s="43" t="s">
         <v>767</v>
       </c>
-      <c r="T25" s="43" t="s">
+      <c r="X25" s="43" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y25" s="43" t="s">
         <v>770</v>
-      </c>
-      <c r="U25" s="43" t="s">
-        <v>809</v>
-      </c>
-      <c r="V25" s="43" t="s">
-        <v>773</v>
-      </c>
-      <c r="W25" s="43" t="s">
-        <v>768</v>
-      </c>
-      <c r="X25" s="43" t="s">
-        <v>738</v>
-      </c>
-      <c r="Y25" s="43" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="26" spans="1:25" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
@@ -12199,7 +12319,7 @@
         <v>173</v>
       </c>
       <c r="O33" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="P33" s="43" t="s">
         <v>445</v>
@@ -12240,7 +12360,7 @@
         <v>11</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D34" s="40" t="s">
         <v>344</v>
@@ -12280,34 +12400,34 @@
         <v>172</v>
       </c>
       <c r="P34" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q34" s="43" t="s">
+        <v>604</v>
+      </c>
+      <c r="R34" s="43" t="s">
+        <v>605</v>
+      </c>
+      <c r="S34" s="43" t="s">
+        <v>610</v>
+      </c>
+      <c r="T34" s="43" t="s">
         <v>608</v>
       </c>
-      <c r="Q34" s="43" t="s">
-        <v>605</v>
-      </c>
-      <c r="R34" s="43" t="s">
-        <v>606</v>
-      </c>
-      <c r="S34" s="43" t="s">
+      <c r="U34" s="69" t="s">
+        <v>603</v>
+      </c>
+      <c r="V34" s="43" t="s">
         <v>611</v>
       </c>
-      <c r="T34" s="43" t="s">
-        <v>609</v>
-      </c>
-      <c r="U34" s="69" t="s">
-        <v>604</v>
-      </c>
-      <c r="V34" s="43" t="s">
-        <v>612</v>
-      </c>
       <c r="W34" s="43" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="X34" s="43" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Y34" s="43" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="35" spans="1:25" s="62" customFormat="1" ht="42.6" customHeight="1">
@@ -12318,7 +12438,7 @@
         <v>12</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D35" s="36" t="s">
         <v>335</v>
@@ -12355,7 +12475,7 @@
         <v>173</v>
       </c>
       <c r="P35" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q35" s="43" t="s">
         <v>446</v>
@@ -12364,25 +12484,25 @@
         <v>447</v>
       </c>
       <c r="S35" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="T35" s="62" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="U35" s="43" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="V35" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="W35" s="43" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="X35" s="43" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Y35" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="36" spans="1:25" s="62" customFormat="1" ht="42.6" customHeight="1">
@@ -12393,7 +12513,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D36" s="36" t="s">
         <v>329</v>
@@ -12433,16 +12553,16 @@
         <v>371</v>
       </c>
       <c r="Q36" s="43" t="s">
+        <v>653</v>
+      </c>
+      <c r="R36" s="43" t="s">
         <v>654</v>
       </c>
-      <c r="R36" s="43" t="s">
+      <c r="S36" s="43" t="s">
         <v>655</v>
       </c>
-      <c r="S36" s="43" t="s">
-        <v>656</v>
-      </c>
       <c r="T36" s="62" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="U36" s="62" t="s">
         <v>274</v>
@@ -12451,7 +12571,7 @@
         <v>275</v>
       </c>
       <c r="W36" s="62" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="X36" s="62" t="s">
         <v>369</v>
@@ -12468,7 +12588,7 @@
         <v>8</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D37" s="36" t="s">
         <v>328</v>
@@ -12505,16 +12625,16 @@
         <v>175</v>
       </c>
       <c r="P37" s="43" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q37" s="48" t="s">
+        <v>645</v>
+      </c>
+      <c r="R37" s="48" t="s">
         <v>646</v>
       </c>
-      <c r="R37" s="48" t="s">
-        <v>647</v>
-      </c>
       <c r="S37" s="43" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="T37" s="62" t="s">
         <v>277</v>
@@ -12523,16 +12643,16 @@
         <v>278</v>
       </c>
       <c r="V37" s="49" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="W37" s="49" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="X37" s="49" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Y37" s="43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="38" spans="1:25" s="62" customFormat="1" ht="42.6" customHeight="1">
@@ -12543,7 +12663,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D38" s="41" t="s">
         <v>343</v>
@@ -12580,34 +12700,34 @@
         <v>173</v>
       </c>
       <c r="P38" s="43" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q38" s="43" t="s">
+        <v>692</v>
+      </c>
+      <c r="R38" s="43" t="s">
+        <v>695</v>
+      </c>
+      <c r="S38" s="43" t="s">
+        <v>710</v>
+      </c>
+      <c r="T38" s="43" t="s">
         <v>736</v>
       </c>
-      <c r="Q38" s="43" t="s">
-        <v>693</v>
-      </c>
-      <c r="R38" s="43" t="s">
-        <v>696</v>
-      </c>
-      <c r="S38" s="43" t="s">
-        <v>711</v>
-      </c>
-      <c r="T38" s="43" t="s">
+      <c r="U38" s="62" t="s">
+        <v>707</v>
+      </c>
+      <c r="V38" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="W38" s="43" t="s">
         <v>737</v>
       </c>
-      <c r="U38" s="62" t="s">
-        <v>708</v>
-      </c>
-      <c r="V38" s="43" t="s">
-        <v>709</v>
-      </c>
-      <c r="W38" s="43" t="s">
-        <v>738</v>
-      </c>
       <c r="X38" s="43" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="Y38" s="43" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="42.6" customHeight="1">
@@ -12618,7 +12738,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D39" s="44" t="s">
         <v>337</v>
@@ -12656,34 +12776,34 @@
       </c>
       <c r="O39" s="49"/>
       <c r="P39" s="43" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q39" s="48" t="s">
+        <v>657</v>
+      </c>
+      <c r="R39" s="48" t="s">
+        <v>661</v>
+      </c>
+      <c r="S39" s="62" t="s">
         <v>703</v>
       </c>
-      <c r="Q39" s="48" t="s">
-        <v>658</v>
-      </c>
-      <c r="R39" s="48" t="s">
-        <v>662</v>
-      </c>
-      <c r="S39" s="62" t="s">
+      <c r="T39" s="43" t="s">
+        <v>709</v>
+      </c>
+      <c r="U39" s="62" t="s">
         <v>704</v>
       </c>
-      <c r="T39" s="43" t="s">
-        <v>710</v>
-      </c>
-      <c r="U39" s="62" t="s">
+      <c r="V39" s="49" t="s">
+        <v>783</v>
+      </c>
+      <c r="W39" s="49" t="s">
+        <v>685</v>
+      </c>
+      <c r="X39" s="49" t="s">
         <v>705</v>
       </c>
-      <c r="V39" s="49" t="s">
-        <v>784</v>
-      </c>
-      <c r="W39" s="49" t="s">
-        <v>686</v>
-      </c>
-      <c r="X39" s="49" t="s">
+      <c r="Y39" s="60" t="s">
         <v>706</v>
-      </c>
-      <c r="Y39" s="60" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="40" spans="1:25" s="62" customFormat="1" ht="42.6" customHeight="1">
@@ -12694,7 +12814,7 @@
         <v>65</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D40" s="36" t="s">
         <v>342</v>
@@ -12719,34 +12839,34 @@
         <v>174</v>
       </c>
       <c r="P40" s="43" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q40" s="48" t="s">
+        <v>786</v>
+      </c>
+      <c r="R40" s="48" t="s">
+        <v>788</v>
+      </c>
+      <c r="S40" s="43" t="s">
+        <v>775</v>
+      </c>
+      <c r="T40" s="43" t="s">
+        <v>784</v>
+      </c>
+      <c r="U40" s="43" t="s">
         <v>793</v>
       </c>
-      <c r="Q40" s="48" t="s">
-        <v>787</v>
-      </c>
-      <c r="R40" s="48" t="s">
+      <c r="V40" s="43" t="s">
         <v>789</v>
       </c>
-      <c r="S40" s="43" t="s">
-        <v>776</v>
-      </c>
-      <c r="T40" s="43" t="s">
+      <c r="W40" s="43" t="s">
+        <v>781</v>
+      </c>
+      <c r="X40" s="43" t="s">
         <v>785</v>
       </c>
-      <c r="U40" s="43" t="s">
-        <v>794</v>
-      </c>
-      <c r="V40" s="43" t="s">
-        <v>790</v>
-      </c>
-      <c r="W40" s="43" t="s">
-        <v>782</v>
-      </c>
-      <c r="X40" s="43" t="s">
-        <v>786</v>
-      </c>
       <c r="Y40" s="43" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="41" spans="1:25" s="62" customFormat="1" ht="42.6" customHeight="1">
@@ -12757,7 +12877,7 @@
         <v>70</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D41" s="43" t="s">
         <v>354</v>
@@ -12782,34 +12902,34 @@
         <v>173</v>
       </c>
       <c r="P41" s="43" t="s">
+        <v>811</v>
+      </c>
+      <c r="Q41" s="43" t="s">
+        <v>814</v>
+      </c>
+      <c r="R41" s="43" t="s">
+        <v>815</v>
+      </c>
+      <c r="S41" s="43" t="s">
+        <v>817</v>
+      </c>
+      <c r="T41" s="43" t="s">
+        <v>787</v>
+      </c>
+      <c r="U41" s="43" t="s">
+        <v>816</v>
+      </c>
+      <c r="V41" s="43" t="s">
+        <v>810</v>
+      </c>
+      <c r="W41" s="43" t="s">
+        <v>813</v>
+      </c>
+      <c r="X41" s="43" t="s">
         <v>812</v>
       </c>
-      <c r="Q41" s="43" t="s">
-        <v>815</v>
-      </c>
-      <c r="R41" s="43" t="s">
-        <v>816</v>
-      </c>
-      <c r="S41" s="43" t="s">
-        <v>818</v>
-      </c>
-      <c r="T41" s="43" t="s">
-        <v>788</v>
-      </c>
-      <c r="U41" s="43" t="s">
-        <v>817</v>
-      </c>
-      <c r="V41" s="43" t="s">
-        <v>811</v>
-      </c>
-      <c r="W41" s="43" t="s">
-        <v>814</v>
-      </c>
-      <c r="X41" s="43" t="s">
-        <v>813</v>
-      </c>
       <c r="Y41" s="43" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="42.6" hidden="1" customHeight="1">
@@ -12956,7 +13076,7 @@
         <v>173</v>
       </c>
       <c r="O44" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="P44" s="43" t="s">
         <v>445</v>
@@ -13021,7 +13141,7 @@
         <v>172</v>
       </c>
       <c r="O45" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="P45" s="43" t="s">
         <v>445</v>
@@ -13079,7 +13199,7 @@
       </c>
       <c r="L46" s="63"/>
       <c r="N46" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="P46" s="43" t="s">
         <v>445</v>
@@ -13137,10 +13257,10 @@
       </c>
       <c r="J47" s="63"/>
       <c r="N47" s="43" t="s">
+        <v>715</v>
+      </c>
+      <c r="O47" s="43" t="s">
         <v>716</v>
-      </c>
-      <c r="O47" s="43" t="s">
-        <v>717</v>
       </c>
       <c r="P47" s="43" t="s">
         <v>445</v>
@@ -13256,7 +13376,7 @@
         <v>156</v>
       </c>
       <c r="H49" s="48" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I49" s="67"/>
       <c r="J49" s="67"/>
@@ -13264,7 +13384,7 @@
       <c r="L49" s="67"/>
       <c r="M49" s="67"/>
       <c r="N49" s="48" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O49" s="67"/>
       <c r="P49" s="43" t="s">
@@ -13306,7 +13426,7 @@
         <v>20</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D50" s="40" t="s">
         <v>361</v>
@@ -13346,34 +13466,34 @@
         <v>176</v>
       </c>
       <c r="P50" s="43" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="Q50" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="R50" s="43" t="s">
+        <v>612</v>
+      </c>
+      <c r="S50" s="43" t="s">
+        <v>614</v>
+      </c>
+      <c r="T50" s="43" t="s">
         <v>613</v>
       </c>
-      <c r="S50" s="43" t="s">
+      <c r="U50" s="69" t="s">
+        <v>602</v>
+      </c>
+      <c r="V50" s="43" t="s">
+        <v>618</v>
+      </c>
+      <c r="W50" s="43" t="s">
+        <v>616</v>
+      </c>
+      <c r="X50" s="43" t="s">
         <v>615</v>
       </c>
-      <c r="T50" s="43" t="s">
-        <v>614</v>
-      </c>
-      <c r="U50" s="69" t="s">
-        <v>603</v>
-      </c>
-      <c r="V50" s="43" t="s">
-        <v>619</v>
-      </c>
-      <c r="W50" s="43" t="s">
+      <c r="Y50" s="43" t="s">
         <v>617</v>
-      </c>
-      <c r="X50" s="43" t="s">
-        <v>616</v>
-      </c>
-      <c r="Y50" s="43" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="51" spans="1:25" s="62" customFormat="1" ht="42.6" customHeight="1">
@@ -13384,7 +13504,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>366</v>
@@ -13421,34 +13541,34 @@
         <v>173</v>
       </c>
       <c r="P51" s="43" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q51" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="R51" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="S51" s="43" t="s">
         <v>637</v>
       </c>
-      <c r="Q51" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="R51" s="43" t="s">
+      <c r="T51" s="43" t="s">
+        <v>642</v>
+      </c>
+      <c r="U51" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="V51" s="43" t="s">
         <v>635</v>
       </c>
-      <c r="S51" s="43" t="s">
+      <c r="W51" s="43" t="s">
+        <v>641</v>
+      </c>
+      <c r="X51" s="43" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y51" s="43" t="s">
         <v>638</v>
-      </c>
-      <c r="T51" s="43" t="s">
-        <v>643</v>
-      </c>
-      <c r="U51" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="V51" s="43" t="s">
-        <v>636</v>
-      </c>
-      <c r="W51" s="43" t="s">
-        <v>642</v>
-      </c>
-      <c r="X51" s="43" t="s">
-        <v>641</v>
-      </c>
-      <c r="Y51" s="43" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="52" spans="1:25" s="62" customFormat="1" ht="42.6" customHeight="1">
@@ -13459,7 +13579,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D52" s="36" t="s">
         <v>339</v>
@@ -13500,10 +13620,10 @@
         <v>372</v>
       </c>
       <c r="Q52" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="R52" s="43" t="s">
         <v>683</v>
-      </c>
-      <c r="R52" s="43" t="s">
-        <v>684</v>
       </c>
       <c r="S52" s="62" t="s">
         <v>373</v>
@@ -13535,7 +13655,7 @@
         <v>19</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="D53" s="37" t="s">
         <v>365</v>
@@ -13572,34 +13692,34 @@
         <v>173</v>
       </c>
       <c r="P53" s="43" t="s">
+        <v>757</v>
+      </c>
+      <c r="Q53" s="43" t="s">
+        <v>750</v>
+      </c>
+      <c r="R53" s="43" t="s">
+        <v>753</v>
+      </c>
+      <c r="S53" s="43" t="s">
         <v>758</v>
       </c>
-      <c r="Q53" s="43" t="s">
-        <v>751</v>
-      </c>
-      <c r="R53" s="43" t="s">
-        <v>754</v>
-      </c>
-      <c r="S53" s="43" t="s">
+      <c r="T53" s="43" t="s">
         <v>759</v>
       </c>
-      <c r="T53" s="43" t="s">
-        <v>760</v>
-      </c>
       <c r="U53" s="43" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="V53" s="43" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="W53" s="43" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="X53" s="43" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="Y53" s="43" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="54" spans="1:25" s="62" customFormat="1" ht="42.6" customHeight="1">
@@ -13610,7 +13730,7 @@
         <v>22</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D54" s="44" t="s">
         <v>362</v>
@@ -13647,37 +13767,37 @@
         <v>173</v>
       </c>
       <c r="O54" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="P54" s="43" t="s">
+        <v>744</v>
+      </c>
+      <c r="Q54" s="43" t="s">
+        <v>739</v>
+      </c>
+      <c r="R54" s="43" t="s">
+        <v>740</v>
+      </c>
+      <c r="S54" s="62" t="s">
+        <v>743</v>
+      </c>
+      <c r="T54" s="43" t="s">
+        <v>741</v>
+      </c>
+      <c r="U54" s="43" t="s">
+        <v>747</v>
+      </c>
+      <c r="V54" s="43" t="s">
+        <v>746</v>
+      </c>
+      <c r="W54" s="43" t="s">
         <v>745</v>
       </c>
-      <c r="Q54" s="43" t="s">
-        <v>740</v>
-      </c>
-      <c r="R54" s="43" t="s">
-        <v>741</v>
-      </c>
-      <c r="S54" s="62" t="s">
-        <v>744</v>
-      </c>
-      <c r="T54" s="43" t="s">
+      <c r="X54" s="43" t="s">
         <v>742</v>
       </c>
-      <c r="U54" s="43" t="s">
-        <v>748</v>
-      </c>
-      <c r="V54" s="43" t="s">
-        <v>747</v>
-      </c>
-      <c r="W54" s="43" t="s">
-        <v>746</v>
-      </c>
-      <c r="X54" s="43" t="s">
-        <v>743</v>
-      </c>
       <c r="Y54" s="43" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="55" spans="1:25" s="62" customFormat="1" ht="42.6" customHeight="1">
@@ -13688,7 +13808,7 @@
         <v>23</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D55" s="36" t="s">
         <v>357</v>
@@ -13728,34 +13848,34 @@
         <v>172</v>
       </c>
       <c r="P55" s="43" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q55" s="43" t="s">
         <v>645</v>
       </c>
-      <c r="Q55" s="43" t="s">
+      <c r="R55" s="43" t="s">
         <v>646</v>
       </c>
-      <c r="R55" s="43" t="s">
+      <c r="S55" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="T55" s="62" t="s">
         <v>647</v>
       </c>
-      <c r="S55" s="43" t="s">
-        <v>652</v>
-      </c>
-      <c r="T55" s="62" t="s">
-        <v>648</v>
-      </c>
       <c r="U55" s="43" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="V55" s="62" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="W55" s="43" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="X55" s="43" t="s">
         <v>381</v>
       </c>
       <c r="Y55" s="43" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="56" spans="1:25" s="62" customFormat="1" ht="42.6" customHeight="1">
@@ -13766,7 +13886,7 @@
         <v>110</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D56" s="36" t="s">
         <v>364</v>
@@ -13806,34 +13926,34 @@
         <v>170</v>
       </c>
       <c r="P56" s="43" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q56" s="48" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="R56" s="48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S56" s="43" t="s">
+        <v>670</v>
+      </c>
+      <c r="T56" s="43" t="s">
         <v>671</v>
       </c>
-      <c r="T56" s="43" t="s">
-        <v>672</v>
-      </c>
       <c r="U56" s="62" t="s">
+        <v>665</v>
+      </c>
+      <c r="V56" s="43" t="s">
+        <v>660</v>
+      </c>
+      <c r="W56" s="43" t="s">
         <v>666</v>
       </c>
-      <c r="V56" s="43" t="s">
+      <c r="X56" s="43" t="s">
         <v>661</v>
       </c>
-      <c r="W56" s="43" t="s">
-        <v>667</v>
-      </c>
-      <c r="X56" s="43" t="s">
-        <v>662</v>
-      </c>
       <c r="Y56" s="43" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="57" spans="1:25" s="62" customFormat="1" ht="42.6" customHeight="1">
@@ -13844,7 +13964,7 @@
         <v>111</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D57" s="42" t="s">
         <v>367</v>
@@ -13884,34 +14004,34 @@
         <v>170</v>
       </c>
       <c r="P57" s="43" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Q57" s="48" t="s">
+        <v>658</v>
+      </c>
+      <c r="R57" s="48" t="s">
+        <v>645</v>
+      </c>
+      <c r="S57" s="43" t="s">
+        <v>669</v>
+      </c>
+      <c r="T57" s="43" t="s">
+        <v>843</v>
+      </c>
+      <c r="U57" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="V57" s="43" t="s">
         <v>659</v>
       </c>
-      <c r="R57" s="48" t="s">
-        <v>646</v>
-      </c>
-      <c r="S57" s="43" t="s">
-        <v>670</v>
-      </c>
-      <c r="T57" s="43" t="s">
-        <v>844</v>
-      </c>
-      <c r="U57" s="62" t="s">
-        <v>665</v>
-      </c>
-      <c r="V57" s="43" t="s">
-        <v>660</v>
-      </c>
       <c r="W57" s="43" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="X57" s="43" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Y57" s="43" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="58" spans="1:25" s="62" customFormat="1" ht="42.6" hidden="1" customHeight="1">
@@ -14193,7 +14313,7 @@
       </c>
       <c r="J62" s="63"/>
       <c r="N62" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="P62" s="43" t="s">
         <v>445</v>
@@ -14251,10 +14371,10 @@
       </c>
       <c r="L63" s="63"/>
       <c r="N63" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O63" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="P63" s="43" t="s">
         <v>445</v>
@@ -14316,7 +14436,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="43" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="P64" s="43" t="s">
         <v>445</v>
@@ -14374,7 +14494,7 @@
       </c>
       <c r="K65" s="63"/>
       <c r="N65" s="43" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="P65" s="43" t="s">
         <v>445</v>
@@ -14430,8 +14550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ33"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14440,15 +14560,20 @@
     <col min="2" max="4" width="9" style="78"/>
     <col min="7" max="7" width="12.25" style="79" customWidth="1"/>
     <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="9.125" style="78" customWidth="1"/>
-    <col min="12" max="12" width="9" style="74"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="9" style="74" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="17" width="9" customWidth="1"/>
     <col min="18" max="18" width="19.625" customWidth="1"/>
+    <col min="19" max="20" width="9" customWidth="1"/>
     <col min="21" max="21" width="11.5" customWidth="1"/>
-    <col min="24" max="24" width="9" customWidth="1"/>
+    <col min="22" max="26" width="9" customWidth="1"/>
     <col min="27" max="27" width="15.625" customWidth="1"/>
     <col min="28" max="28" width="12.75" customWidth="1"/>
     <col min="29" max="29" width="21.625" customWidth="1"/>
+    <col min="30" max="33" width="9" customWidth="1"/>
     <col min="34" max="34" width="14.5" customWidth="1"/>
     <col min="35" max="35" width="10.625" customWidth="1"/>
     <col min="36" max="36" width="19.625" customWidth="1"/>
@@ -14456,112 +14581,112 @@
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" thickTop="1" thickBot="1">
       <c r="A1" s="77" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>901</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>902</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>903</v>
+      </c>
+      <c r="E1" t="s">
+        <v>904</v>
+      </c>
+      <c r="F1" t="s">
+        <v>905</v>
+      </c>
+      <c r="G1" s="79" t="s">
         <v>906</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="H1" t="s">
+        <v>908</v>
+      </c>
+      <c r="I1" t="s">
+        <v>909</v>
+      </c>
+      <c r="J1" s="78" t="s">
+        <v>915</v>
+      </c>
+      <c r="K1" t="s">
         <v>907</v>
       </c>
-      <c r="C1" s="78" t="s">
-        <v>908</v>
-      </c>
-      <c r="D1" s="78" t="s">
-        <v>909</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="L1" s="74" t="s">
+        <v>916</v>
+      </c>
+      <c r="M1" t="s">
         <v>910</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>911</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="O1" t="s">
         <v>912</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
+        <v>913</v>
+      </c>
+      <c r="Q1" t="s">
         <v>914</v>
       </c>
-      <c r="I1" t="s">
-        <v>915</v>
-      </c>
-      <c r="J1" s="78" t="s">
+      <c r="R1" t="s">
+        <v>917</v>
+      </c>
+      <c r="S1" t="s">
+        <v>918</v>
+      </c>
+      <c r="T1" t="s">
+        <v>919</v>
+      </c>
+      <c r="U1" t="s">
+        <v>920</v>
+      </c>
+      <c r="V1" t="s">
         <v>921</v>
       </c>
-      <c r="K1" t="s">
-        <v>913</v>
-      </c>
-      <c r="L1" s="74" t="s">
+      <c r="W1" t="s">
         <v>922</v>
       </c>
-      <c r="M1" t="s">
-        <v>916</v>
-      </c>
-      <c r="N1" t="s">
-        <v>917</v>
-      </c>
-      <c r="O1" t="s">
-        <v>918</v>
-      </c>
-      <c r="P1" t="s">
-        <v>919</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>920</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>923</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>924</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>925</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>926</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>927</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>928</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AD1" t="s">
         <v>929</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AE1" t="s">
         <v>930</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AF1" t="s">
         <v>931</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AG1" t="s">
         <v>932</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
         <v>933</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
         <v>934</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AJ1" s="80" t="s">
         <v>935</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>936</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>937</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>938</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>939</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>940</v>
-      </c>
-      <c r="AJ1" s="80" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="15" thickTop="1">
@@ -14664,6 +14789,10 @@
       <c r="AG2">
         <v>0</v>
       </c>
+      <c r="AH2">
+        <f>IF(G2=3,100,IF(G2=2,200,0))</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:36">
       <c r="B3" s="32" t="s">
@@ -14765,6 +14894,10 @@
       <c r="AG3" s="76">
         <v>0</v>
       </c>
+      <c r="AH3" s="81">
+        <f t="shared" ref="AH3:AH33" si="4">IF(G3=3,100,IF(G3=2,200,0))</f>
+        <v>200</v>
+      </c>
     </row>
     <row r="4" spans="1:36">
       <c r="B4" s="31" t="s">
@@ -14866,6 +14999,10 @@
       <c r="AG4" s="76">
         <v>0</v>
       </c>
+      <c r="AH4" s="81">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:36">
       <c r="B5" s="32" t="s">
@@ -14967,6 +15104,10 @@
       <c r="AG5" s="76">
         <v>0</v>
       </c>
+      <c r="AH5" s="81">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:36">
       <c r="B6" s="32" t="s">
@@ -15068,6 +15209,10 @@
       <c r="AG6" s="76">
         <v>0</v>
       </c>
+      <c r="AH6" s="81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:36">
       <c r="B7" s="31" t="s">
@@ -15169,6 +15314,10 @@
       <c r="AG7" s="76">
         <v>0</v>
       </c>
+      <c r="AH7" s="81">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:36">
       <c r="B8" s="32" t="s">
@@ -15270,6 +15419,10 @@
       <c r="AG8" s="76">
         <v>0</v>
       </c>
+      <c r="AH8" s="81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:36">
       <c r="B9" s="32" t="s">
@@ -15371,6 +15524,10 @@
       <c r="AG9" s="76">
         <v>0</v>
       </c>
+      <c r="AH9" s="81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:36">
       <c r="B10" s="32" t="s">
@@ -15472,6 +15629,10 @@
       <c r="AG10" s="76">
         <v>0</v>
       </c>
+      <c r="AH10" s="81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:36">
       <c r="B11" s="32" t="s">
@@ -15573,6 +15734,10 @@
       <c r="AG11" s="76">
         <v>0</v>
       </c>
+      <c r="AH11" s="81">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="12" spans="1:36">
       <c r="B12" s="32" t="s">
@@ -15674,6 +15839,10 @@
       <c r="AG12" s="76">
         <v>0</v>
       </c>
+      <c r="AH12" s="81">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="13" spans="1:36">
       <c r="B13" s="31" t="s">
@@ -15775,6 +15944,10 @@
       <c r="AG13" s="76">
         <v>0</v>
       </c>
+      <c r="AH13" s="81">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:36">
       <c r="B14" s="65" t="s">
@@ -15876,6 +16049,10 @@
       <c r="AG14" s="76">
         <v>0</v>
       </c>
+      <c r="AH14" s="81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:36">
       <c r="B15" s="31" t="s">
@@ -15977,6 +16154,10 @@
       <c r="AG15" s="76">
         <v>0</v>
       </c>
+      <c r="AH15" s="81">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="1:36">
       <c r="B16" s="72" t="s">
@@ -16078,8 +16259,12 @@
       <c r="AG16" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:33">
+      <c r="AH16" s="81">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34">
       <c r="B17" s="32" t="s">
         <v>50</v>
       </c>
@@ -16179,8 +16364,12 @@
       <c r="AG17" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:33">
+      <c r="AH17" s="81">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34">
       <c r="B18" s="65" t="s">
         <v>11</v>
       </c>
@@ -16280,8 +16469,12 @@
       <c r="AG18" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:33">
+      <c r="AH18" s="81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34">
       <c r="B19" s="32" t="s">
         <v>12</v>
       </c>
@@ -16381,8 +16574,12 @@
       <c r="AG19" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:33">
+      <c r="AH19" s="81">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34">
       <c r="B20" s="32" t="s">
         <v>7</v>
       </c>
@@ -16482,8 +16679,12 @@
       <c r="AG20" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:33">
+      <c r="AH20" s="81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34">
       <c r="B21" s="31" t="s">
         <v>8</v>
       </c>
@@ -16583,8 +16784,12 @@
       <c r="AG21" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:33">
+      <c r="AH21" s="81">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34">
       <c r="B22" s="32" t="s">
         <v>9</v>
       </c>
@@ -16684,8 +16889,12 @@
       <c r="AG22" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:33">
+      <c r="AH22" s="81">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34">
       <c r="B23" s="31" t="s">
         <v>10</v>
       </c>
@@ -16785,8 +16994,12 @@
       <c r="AG23" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:33">
+      <c r="AH23" s="81">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34">
       <c r="B24" s="32" t="s">
         <v>65</v>
       </c>
@@ -16886,8 +17099,12 @@
       <c r="AG24" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:33">
+      <c r="AH24" s="81">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34">
       <c r="B25" s="65" t="s">
         <v>70</v>
       </c>
@@ -16987,8 +17204,12 @@
       <c r="AG25" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:33">
+      <c r="AH25" s="81">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34">
       <c r="B26" s="32" t="s">
         <v>20</v>
       </c>
@@ -17088,8 +17309,12 @@
       <c r="AG26" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:33">
+      <c r="AH26" s="81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34">
       <c r="B27" s="32" t="s">
         <v>24</v>
       </c>
@@ -17189,8 +17414,12 @@
       <c r="AG27" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:33">
+      <c r="AH27" s="81">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34">
       <c r="B28" s="32" t="s">
         <v>3</v>
       </c>
@@ -17290,8 +17519,12 @@
       <c r="AG28" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:33">
+      <c r="AH28" s="81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34">
       <c r="B29" s="65" t="s">
         <v>19</v>
       </c>
@@ -17391,8 +17624,12 @@
       <c r="AG29" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:33">
+      <c r="AH29" s="81">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34">
       <c r="B30" s="32" t="s">
         <v>22</v>
       </c>
@@ -17492,8 +17729,12 @@
       <c r="AG30" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:33">
+      <c r="AH30" s="81">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34">
       <c r="B31" s="32" t="s">
         <v>23</v>
       </c>
@@ -17593,8 +17834,12 @@
       <c r="AG31" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:33">
+      <c r="AH31" s="81">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34">
       <c r="B32" s="31" t="s">
         <v>110</v>
       </c>
@@ -17694,8 +17939,12 @@
       <c r="AG32" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:33">
+      <c r="AH32" s="81">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:34">
       <c r="B33" s="32" t="s">
         <v>111</v>
       </c>
@@ -17794,6 +18043,10 @@
       </c>
       <c r="AG33" s="76">
         <v>0</v>
+      </c>
+      <c r="AH33" s="81">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -17828,7 +18081,7 @@
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写自然数" sqref="AH1:AH1048576 N1:Q1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写自然数" sqref="N1:Q1048576 AH1:AH1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写0-3整数" sqref="M1:M1048576">
@@ -17868,7 +18121,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="27" customFormat="1">
       <c r="A1" s="73" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>573</v>
@@ -17959,7 +18212,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="75" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>464</v>
@@ -18350,7 +18603,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C26" sqref="C9:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18361,7 +18614,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="75" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>464</v>
@@ -18749,30 +19002,40 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="73" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="90" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="138.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="111" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="89" t="s">
+        <v>849</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="97.5" customHeight="1">
+      <c r="A2" s="89" t="s">
         <v>850</v>
       </c>
-      <c r="B1" s="70" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>852</v>
+      <c r="B2" s="91" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" customHeight="1">
+      <c r="A3" s="89" t="s">
+        <v>940</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>942</v>
       </c>
     </row>
   </sheetData>
@@ -18785,32 +19048,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="69.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="73" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>831</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -18818,16 +19081,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>855</v>
+        <v>943</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="73" customFormat="1">
@@ -18835,16 +19098,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>856</v>
+        <v>944</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="73" customFormat="1">
@@ -18852,16 +19115,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>849</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>854</v>
+        <v>945</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="73" customFormat="1">
@@ -18869,16 +19132,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>853</v>
+        <v>946</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -18886,16 +19149,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -18903,16 +19166,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -18920,14 +19183,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -18935,13 +19198,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="73" customFormat="1">
@@ -18949,16 +19212,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -18966,16 +19229,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -18983,13 +19246,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="73" customFormat="1">
@@ -18997,13 +19260,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="73" customFormat="1">
@@ -19011,13 +19274,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>880</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -19025,13 +19288,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -19039,13 +19302,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="73" customFormat="1">
@@ -19053,13 +19316,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="73" customFormat="1">
@@ -19067,13 +19330,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="73" customFormat="1">
@@ -19081,13 +19344,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="73" customFormat="1">
@@ -19095,13 +19358,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="73" customFormat="1">
@@ -19109,13 +19372,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="73" customFormat="1">
@@ -19123,13 +19386,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="73" customFormat="1">
@@ -19137,13 +19400,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="73" customFormat="1">
@@ -19151,13 +19414,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -19165,16 +19428,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -19182,16 +19445,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -19199,16 +19462,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>
@@ -19248,7 +19511,7 @@
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="75" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -19280,16 +19543,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -19372,55 +19635,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
       <c r="K1" s="4"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
-      <c r="N1" s="83" t="s">
+      <c r="N1" s="84" t="s">
         <v>244</v>
       </c>
-      <c r="O1" s="81" t="s">
+      <c r="O1" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="86"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="2" t="s">
         <v>182</v>
       </c>
@@ -19442,7 +19705,7 @@
       <c r="M2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="N2" s="83"/>
+      <c r="N2" s="84"/>
       <c r="O2" s="21" t="s">
         <v>28</v>
       </c>

--- a/Document/武将技能及晋升资质.xlsx
+++ b/Document/武将技能及晋升资质.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="一阶段" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="912">
   <si>
     <t>四维</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>典韦</t>
@@ -116,11 +116,11 @@
   </si>
   <si>
     <t>晋升能力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1阶</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2阶</t>
@@ -148,11 +148,11 @@
   </si>
   <si>
     <t>土遁之术：增加左慈10点敏捷，且每点敏捷会额外提升0.1点左慈的速度和百分之0.5命中率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>雷神之盾：张角受到伤害时，一半的伤害将有法力吸收每点法力会吸收2点伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -185,27 +185,27 @@
       </rPr>
       <t>法术伤害</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>体质</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>智力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>力量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>敏捷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>总属性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>曹操</t>
@@ -446,7 +446,7 @@
   </si>
   <si>
     <t>国籍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>S</t>
@@ -555,119 +555,119 @@
   </si>
   <si>
     <t>蜀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>品质</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SSS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>职业</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破军</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>贪狼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>七杀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>粉碎</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>武器2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>短兵</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>法术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>横扫</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>穿刺</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>远射</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>体质</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>力量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>敏捷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>敏捷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>智力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>力量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>智力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>体质</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>短兵</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>法术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>颜色</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>刺日*吞月：当张辽装备穿刺类武器时，对首个目标额外增加X伤害；当装备横扫类武器时，额外增加一个目标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -690,46 +690,46 @@
       </rPr>
       <t>X</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>暴怒：当张飞装备穿刺类武器时，对首个目标身旁的两个单位造成X溅射伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>穿云*青釭：当赵云装备穿刺类武器时，可额外增加一个目标；当装备短兵器时，普通攻击可为目标附加一个破甲状态，受到物理伤害提升X，持续2回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破军</t>
   </si>
   <si>
     <t>七杀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>贪狼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破军</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>陷阵*绝杀：当甘宁装备短兵器时，增加自身X生命上限，当装备远射类武器时，普通攻击对生命X以下的敌人增加X伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>都督*圣兽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>都督*白虎：当陆逊装备法术武器时，普攻伤害增加X；当装备短兵时，白虎的防御增加</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -762,7 +762,7 @@
       </rPr>
       <t>，攻击将会波及到其身后的所有目标；当装备远射类装备时，命中率提高百分之百</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -795,7 +795,7 @@
       </rPr>
       <t>回合调息时间</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -828,23 +828,23 @@
       </rPr>
       <t>的英灵继续战斗，持续两回合或英灵阵亡</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>战意</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生命值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>最终伤免</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>格挡后可以反击，造成百分之五十伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -897,7 +897,7 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -930,7 +930,7 @@
       </rPr>
       <t>闪避率</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -963,15 +963,15 @@
       </rPr>
       <t>闪避率</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>最终伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>速度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -994,11 +994,11 @@
       </rPr>
       <t>30</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>增加百分之30格挡率，当体质大于对方时，格挡伤害降低10%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1021,7 +1021,7 @@
       </rPr>
       <t>30%</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1064,7 +1064,7 @@
       </rPr>
       <t>30%</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1117,15 +1117,15 @@
       </rPr>
       <t>回合，无消耗</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>先机技：奇计：战斗开始时，敌方所有人有百分之20几率陷入晕眩状态，持续一回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1168,11 +1168,11 @@
       </rPr>
       <t>10%</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>流言：对单体目标造成120%伤害，50%附加晕眩一回合，调息2回合，消耗80点法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1215,15 +1215,15 @@
       </rPr>
       <t>10%</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>抗暴</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>物理伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1246,23 +1246,23 @@
       </rPr>
       <t>30%</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当关羽击杀一个目标后，绝技的调息时间减少2回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当友方武将对敌方目标暴击时，关羽会随后对该目标造成150%的伤害，最多触发7次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>关羽死亡时对击杀者造成400%的伤害，并附加封技1回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当贾诩装备法术类装备时，会优先攻击生命百分比最低的单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1295,7 +1295,7 @@
       </rPr>
       <t>溅射伤害</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1348,11 +1348,11 @@
       </rPr>
       <t>生命</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破釜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1375,11 +1375,11 @@
       </rPr>
       <t>0%</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>减少全队受到的魔法伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1432,7 +1432,7 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1465,11 +1465,11 @@
       </rPr>
       <t>回合调息时间</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当司马懿装备法术类装备时，每次攻击可回复30%自身智力值的法力；当装备短兵时，每次攻击可吸取30%生命</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1502,11 +1502,11 @@
       </rPr>
       <t>名敌方单位造成伤害并</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>连破击杀一个目标后，可重置调息时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1529,11 +1529,11 @@
       </rPr>
       <t>30%</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>杀死于吉的单位获得【缠怨】状态5回合，当其生命低于20%时，则立即死亡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1586,7 +1586,7 @@
       </rPr>
       <t>物理伤害</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1639,11 +1639,11 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>法防比</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1656,7 +1656,7 @@
       </rPr>
       <t>绝技</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1722,7 +1722,7 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1824,7 +1824,7 @@
       </rPr>
       <t>点法力</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1962,7 +1962,7 @@
       </rPr>
       <t>以下无法释放</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2046,7 +2046,7 @@
       </rPr>
       <t>点法力</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2079,15 +2079,15 @@
       </rPr>
       <t>的攻击并晕眩一回合</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>七杀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>马踏天下：对直线敌人造成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2120,27 +2120,27 @@
       </rPr>
       <t>时，孙策获得【激昂】状态：攻击力增加百分之百</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>长版怒吼：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>马良</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>群</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>祝融夫人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>7星</t>
@@ -2228,7 +2228,7 @@
   </si>
   <si>
     <t>1阶能力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2阶能力</t>
@@ -2305,299 +2305,299 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>人物特点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>远射群伤，短兵连击，输出位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>残血觉醒，效果强力，单秒收人头，吴国小光环</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>吴国大光环，灵魂锁链</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>远射</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>短兵</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>法术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>高格挡，死亡出盾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>短兵肉，高格挡反击；远射高输出，克破军</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>双人回复，输出带破甲，克七杀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>命中较低，暴击伤害高，格挡后反击暴击高</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>高防御，可无敌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>死亡自爆，先机技晕眩，控制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>治疗，生贪狼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>锤主控制，法术生七杀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>稳定输出，可横排可竖排，生破军</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>标准战士，生破军</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>贪狼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>七杀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破军</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>贪狼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破军</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>治疗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>远程高伤害克破军，魏国第一速度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>射手，几率触发多次打击，高速度，吴国第一速度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>七杀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>高血，魏国大光环</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生七杀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>随机AOE伤害，生七杀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>单点击破，高暴击率，克七杀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>增益，生贪狼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>辅助带减益，克贪狼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>蜀国第一速度，先机技废掉对面一个</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>点杀，死亡废掉一人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>长驱直入，前几次攻击较高，先机技带破甲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>速度很慢，开局减伤，高伤害，面积伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>魏国小光环，克贪狼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>高闪避高速度，减益增益</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>先机技加全体速度，依赖法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>高闪避，面积伤害，大雾天气专家</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>单点击破，沙暴天气专家，收人头刷cd，法术兵器回复法力，永动机；短兵回复生命，靠普攻</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>横排减怒，克七杀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破军</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>中毒减益伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>群雄大光环</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>群雄小光环</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>后排单点，高命中，高伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>连环伤害，克贪狼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>速度快，直线突击，受伤减CD，克破军</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>群攻群疗，灼烧叠加，大风天气专家，召唤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>火烧一切，召唤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>治疗，减少自身伤害，召唤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>持续回合越久越强力，前期输出薄弱，召唤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生贪狼，控制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>告诉封疗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>无限吸血</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生破军，蜀国大光环</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>依赖法力，法力耗尽觉醒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>伤害很高</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>无敌加控制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>减伤，蜀国小光环</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>闪避劈人，雷雨天气专家，带感电，增加法术伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>减益</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>稳定输出，生破军</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>法力抵消伤害，加攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>横扫全屏，远射必中，克破军</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>中毒伤害，克七杀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>高血量，血牛</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对撕裂状态有加成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生贪狼，减益</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>克贪狼，控制高速</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>附加撕裂状态，生七杀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>有死亡技能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2630,7 +2630,7 @@
       </rPr>
       <t>的伤害</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2703,7 +2703,7 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2756,7 +2756,7 @@
       </rPr>
       <t>回合，无消耗</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2909,7 +2909,7 @@
       </rPr>
       <t>以下无法释放</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2962,27 +2962,27 @@
       </rPr>
       <t>生命</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>迅捷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>不灭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破蜀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>徐林</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破击：对单体造成X伤害3回合调息时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3035,31 +3035,31 @@
       </rPr>
       <t>回合调息时间</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破釜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>水星</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>反击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>反击时对竖排敌人造成伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>钢筋</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>坚甲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3092,7 +3092,7 @@
       </rPr>
       <t>转化为破军护盾吸收即将到来的伤害</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3135,35 +3135,35 @@
       </rPr>
       <t>20%</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>每次承受少于自身最大生命值百分之十的伤害时，绝技的调息时间便缩短一回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>死亡出盾，纯肉，防高，压血</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>茂盛</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>铁骨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破魏</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>逆转：绝技的消耗变为回复</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>背水</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3196,35 +3196,35 @@
       </rPr>
       <t>伤害给对方</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>苦肉*鞭挞：当黄盖装备粉碎类武器时，普通攻击有百分之10的几率是对方陷入【混乱】；当</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>高血反伤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>利刃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>疾风</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>鹰眼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>决胜：当对方的敏捷值小于凌统时，必定暴击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当装备远射类武器时，普通攻击可追击，最多追击2次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3257,27 +3257,27 @@
       </rPr>
       <t>点敏捷值</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>狼嗥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>每次暴击减少一回合绝技调息时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>鹰眼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>凰涎</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>神佑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3300,23 +3300,23 @@
       </rPr>
       <t>20%</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>制衡：对敌方单体造成X伤害并回复自身X生命，调息2回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>发动制衡时，若生命百分百少于敌方，则减少1回合绝技调息时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>增加吴国全体伤害百分之30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>火星</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3349,11 +3349,11 @@
       </rPr>
       <t>伤害</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>先机技：联姻：开场时和随机一名友方单位同时进入【联姻】状态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3406,19 +3406,19 @@
       </rPr>
       <t>点怒气</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当联姻的目标击杀一名敌方单位后，孙尚香的绝技立刻调息完毕</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当联姻目标在其回合对敌方造成伤害时</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>灭杀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3481,7 +3481,7 @@
       </rPr>
       <t>X</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3514,7 +3514,7 @@
       </rPr>
       <t>最大生命值</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3607,7 +3607,7 @@
       </rPr>
       <t>回合调息</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3700,7 +3700,7 @@
       </rPr>
       <t>回合调息</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3773,11 +3773,11 @@
       </rPr>
       <t>回合调息</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>索命：对敌方后排单体造成X伤害，并【封技】一回合，5回合调息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3850,7 +3850,7 @@
       </rPr>
       <t>回合调息</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3903,7 +3903,7 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3976,23 +3976,23 @@
       </rPr>
       <t>回合调息</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>龙啸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>狼嗥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>装备穿刺类武器时额外增加一个目标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>反击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4025,63 +4025,63 @@
       </rPr>
       <t>破军盾，用于吸收即将到来的伤害</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金星</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>抗群</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>镇静</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>屠狼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>压制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>茂盛</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>背水</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对后排单体造成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>甲胄</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>勘察</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当自身破军盾被击破时，绝技的调息时间减少1回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对地方全造成X伤害并附带灼烧，调息五回合，消耗X法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>钢筋</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>风流</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4114,27 +4114,27 @@
       </rPr>
       <t>伤害并附加灼烧</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>先机技：大风</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>攻击灼烧类敌方单位时</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>慧根</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>免疫全队大风天气的负面影响</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>大风天气下，灼烧效果加倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4554,7 +4554,7 @@
   </si>
   <si>
     <t>大风</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
@@ -4885,59 +4885,59 @@
   </si>
   <si>
     <t>天气</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>效果</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>雷电</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>沙暴</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>雾霾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>全场命中减少</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>全场法防降低</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>全场物防降低</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>全场攻击降低</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>周瑜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>张角</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>司马懿</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>诸葛亮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>发起人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4960,39 +4960,39 @@
       </rPr>
       <t>30%</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>慧根；对智力低于自身的敌人造成伤害时，吸收X生命</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>徐林</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>每次闪避后，可增加自身最大生命百分之十的破军护盾，破军护盾在吕蒙濒死时用于吸收伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>6星</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>自身免疫【攻击降低】效果，免疫全队大风天气的负面影响</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>自身免疫【物理防御降低】效果，并使全队免疫沙暴天气的负面影响</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>琴音：对随机三个敌方目标造成X伤害，若其正被【灼烧】，则伤害提升X，调息3回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>每次普攻到一个被灼烧类敌方单位时，会回复X法力值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5045,7 +5045,7 @@
       </rPr>
       <t>会回复自身生命</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5138,7 +5138,7 @@
       </rPr>
       <t>点法力</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5191,7 +5191,7 @@
       </rPr>
       <t>（恶劣天气下效果翻倍）</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5244,7 +5244,7 @@
       </rPr>
       <t>（恶劣天气下效果翻倍）</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5297,7 +5297,7 @@
       </rPr>
       <t>（恶劣天气下效果翻倍）</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5320,7 +5320,7 @@
       </rPr>
       <t>0%</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当吕布装备横扫类装备时，攻击系数降低0.2，攻击将会波及到其身后的所有目标；当装备远射类装备时，命中率提高百分之百</t>
@@ -5386,75 +5386,75 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>利刃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>倜傥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>自身免疫【命中降低】效果，并使全队免疫雾霾天气的负面影响</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>百鸟朝凤：对直线敌人造成x伤害，并击破额外X破军盾，调息5回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>背水</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破釜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>七探蛇盘：对直线敌人造成X伤害，30%几率再次释放，5回合调息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>赵云每杀死一个目标时，减少一回合绝技调息和并重置七探蛇盘</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>不动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>斩破</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>振奋</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>强力；当力量大于对方时，破挡率增加100%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>普通攻击造成伤害的百分之20变为破军盾，抵挡即将到来的伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>修罗地狱：攻击增加百分之20，免疫一切来自其他人的状态（包括治疗）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>若此次攻击无人格挡则减少一回合绝技调息时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>装备法术类武器时，伤害增加百分之30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>强力；当力量大于对方时伤害增加30%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5537,11 +5537,11 @@
       </rPr>
       <t>30%</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>普攻怒气获取翻倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5574,11 +5574,11 @@
       </rPr>
       <t>生命</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>迅捷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5631,91 +5631,91 @@
       </rPr>
       <t>防御</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>缥缈</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>每次被攻击回复X法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>大雾天气下，自身回合开始前，随机对敌方一个单位附加【致盲】，持续1回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对敌方全体造成X伤害，并提升全队友方闪避X，调息时间5回合，消耗X法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>每次闪避敌人攻击时，回复X法力，并减少绝技1回合调息时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>七星灯：友方闪避一次攻击时，对其施加祝福效果，提升其X攻击，持续一回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>装备法术类武器时，普通攻击30几率附加【混乱】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>洞察</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>疾风</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>每回合回复X法力值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对敌方前排全部目标造成X伤害，并附加【封技】状态两回合，调息3回合，消耗X法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>幻化：对随机3个目标造成X伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>幻化和绝技对贪狼减少X法力，对七杀减少X怒气，对破军额外击破X破军盾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>慧根，对智力低于自身的敌人【一定命中】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>灵动；百分之20的敏捷值转化为智力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>水星</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>屠狼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>自身免疫【法术防御降低】效果，并使全队免疫雷雨天气的负面效果</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>黄天当立：对敌方全造成X伤害并有30%几率附带【感电】2回合，调息3回合，消耗X法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>疾风</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>鹰眼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5768,15 +5768,15 @@
       </rPr>
       <t>（恶劣天气下效果翻倍）</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>雷雨天气下，张角每次闪避敌方攻击将发动一次不消耗法力的五雷轰顶</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对敌方全体造成X伤害，并30%附加【恫吓】状态两回合，【恫吓】状态下的目标攻防速都减少5%，调息时间5回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5809,11 +5809,11 @@
       </rPr>
       <t>法力</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>五雷轰顶：对随机一名单体敌方单位造成X伤害，若其身上有【感电】效果，则造成【晕眩】一回合，消耗X法力，3回合调息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5866,19 +5866,19 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>利刃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>土星</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>振奋</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5901,35 +5901,35 @@
       </rPr>
       <t>30%</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>掠夺</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>利刃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>初始获得50%怒气</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对【撕裂】状态敌人造成伤害时，回复X怒气</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>狮搏</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>狼嗥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对速度小于自身的敌人造成伤害时，必定附加【撕裂】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6012,7 +6012,7 @@
       </rPr>
       <t>附加【撕裂】</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6095,43 +6095,43 @@
       </rPr>
       <t>附加【撕裂】</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对攻击小于自身的敌人造成伤害时，伤害增加20%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>自身的【撕裂】效果加倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对【撕裂】效果的敌人造成伤害时，伤害增加30%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>浴血</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>不动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>毁灭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>穿刺断腕：对敌方直线造成X伤害，并有50%几率附加【撕裂】2回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>横扫断腕：对敌方横排造成X伤害，并有40%几率附加【撕裂】2回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>威震：对随机5名敌方单位造成X伤害并回复己方全体破军盾X点，5回合调息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6244,7 +6244,7 @@
       </rPr>
       <t>点法力</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6337,7 +6337,7 @@
       </rPr>
       <t>点法力</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6370,7 +6370,7 @@
       </rPr>
       <t>几率陷入【晕眩】状态，持续一回合</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6413,7 +6413,7 @@
       </rPr>
       <t>10%</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6456,43 +6456,43 @@
       </rPr>
       <t>30%</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>水星</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>杀死自身的单位获得【缠怨】效果3回合，被【缠怨】附身的目标无法回复生命，且当其生命下降到百分之20时，直接死亡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>茂盛</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>感知</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>掠夺</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>龙啸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>马踏天下：对直线敌人造成X伤害，百分之20附加【迟缓】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>灵动；对速度低于自身的敌人暴击伤害增加50%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>普通攻击的怒气获取效果提升</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6525,7 +6525,7 @@
       </rPr>
       <t>伤害并附加【迟缓】</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6558,39 +6558,39 @@
       </rPr>
       <t>伤害附加【迟缓】</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>免疫【迟缓】，施放绝技后提升自身速度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破魏</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>压制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破蜀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>勘察</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>陆逊在场时，被火烧死的单位会对周围单位造成X伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>飘渺</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>红莲业火：对敌方全造成X伤害，有30%几率附带【灼烧】2回合，调息3回合，消耗X法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6663,11 +6663,11 @@
       </rPr>
       <t>攻击，直到回合结束</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>普通攻击的5%的伤害会转化为法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6720,11 +6720,11 @@
       </rPr>
       <t>；当装备短兵时，会召唤白虎之力，增加全队攻击力</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>长版怒吼：对横排全部敌人造成X伤害，并对其中的七杀减少X怒气</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6797,7 +6797,7 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6830,11 +6830,11 @@
       </rPr>
       <t>溅射伤害</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破釜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6867,7 +6867,7 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6900,143 +6900,143 @@
       </rPr>
       <t>点法力</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>铁索连环影响效果增加一个目标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>灭杀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>风流</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>武器1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>治疗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>远射</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>粉碎</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>短兵</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>法术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>穿刺</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>压制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金星</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>反击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>斩破</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>甲胄</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>反击时获得X怒气</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>复仇：当队友被暴击时，甘宁将对攻击者造成X伤害，限发动10次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>狼嗥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{(我方攻击力-对方对应防御值)X技能系数X[1+(我方攻击对应属性-对方对应属性)%]+最终伤害-对方最终伤免}X(1+我方增伤百分比-对方减伤百分比)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对随机三个单位造成X伤害，有X几率再次发动，造成一半伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>慧根；免疫【灼烧】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>火烧联营：对敌方直线造成X伤害，并附加【灼烧】2回合，3回合调息，消耗X法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>审时度势：速度高于陆逊的敌人对其伤害减少X；陆逊对速度低于他的敌人伤害增加X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对单体敌人造成X伤害，若该敌人被【灼烧】，则附加【晕眩】1回合，调息3回合，消耗X法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>敏捷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>涅槃：死亡后满血满蓝复活，但每回合减少20%最大血量，限定一次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>铁索连环：对随机两个单位造成X伤害，并【连环】3回合，优先选择未被【连环】的单位，调息2回合，消耗X法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对单体目标造成X伤害，并附加【灼烧】，持续2回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>不动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当本队人数少于2人（含2人）时，赵云的伤害提升X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>感知</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>灭杀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>虚无</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>凰涎；免疫【中毒】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7089,95 +7089,95 @@
       </rPr>
       <t>法力</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对随机3名敌人造成X伤害，并附加【中毒】，消耗X法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>琅琊道额外增加1个目标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>治疗暴击时，回复X法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>太平*领道：当于吉装备法术类武器时，普通攻击几率附加【中毒】；当装备治疗类武器时，暴击率增加X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>增加女性武将的伤害30%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>天香</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破群</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>慧根；免疫【连环】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>死亡时对全部贪狼队友回复X法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>疾风</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>贤良*天公：当张角装备法术类武器的时候，会附加【感电】状态2回合；当装备短兵时，普攻对【感电】状态的敌人50%造成【晕眩】1回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>绝技消耗的敌方法力将回复自身法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>纷舞：当貂蝉装备法术类武器时，普通攻击增加一个目标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>闭月：对随机两名敌方目标造成X伤害，优先选择贪狼，若目标为贪狼，则降低其10%最大法力，调息3回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>离间：对两名目标造成【离间】，若均命中，则攻击高的一方对攻击低的一方造成X伤害，消耗X法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>火星</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金星</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>自身破军盾被击破时，减少绝技调息一回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当本队死亡人数少于2人时，张辽的伤害提升X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>许褚的粉碎类武器，普攻攻击范围增大</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>受到伤害获得的怒气值提升</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对全体友方回复X生命，消耗X法力，调息3回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7270,31 +7270,31 @@
       </rPr>
       <t>回合</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>王佐之才的影响目标变为全体</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>勘察</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>木星</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对生命50%以下的友方治疗量翻倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>压制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>每回合回复X法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7367,71 +7367,71 @@
       </rPr>
       <t>几率触发连击</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>普通攻击和绝技50%触发【缴械】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>利刃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>迅捷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>水星</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>运筹：对单体目标造成X，若目标死于该技能则再次发动运筹，不无限施放，调息3回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破蜀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>龙啸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>狼嗥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>每次发动连击时，增加X怒气</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>暴击的怒气提升效果翻倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>背水</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对敏捷小于自身的目标【一定命中】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>徐林</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破魏</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>抗魏</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>杀死一个目标时，大幅提升怒气</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7524,31 +7524,31 @@
       </rPr>
       <t>伤害</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对【麻痹】的目标伤害增加X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对后排单体造成X伤害，并造成【麻痹】状态2回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当黄忠装备横扫类装备时，普攻50%几率造成【麻痹】2回合；当装备远射类武器时，普通攻击对生命X以下的敌人增加X伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>先机技：当先：自身前两个回合速度增加X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>抗吴</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>斩破</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7601,123 +7601,123 @@
       </rPr>
       <t>系数</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>普通攻击和绝技50%触发【致盲】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对后排全部单位造成X伤害，并击破X护盾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>反击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>装备穿刺类武器时额外增加一个目标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>坚甲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>不灭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>抗群</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对直线造成X伤害，并提升自身格挡率50%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>每次未命中时，增加反击伤害直到战斗结束</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>强力，免疫【缴械】【破甲】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当荀彧装备法术类武器时，普攻50%附加【感电】；装备治疗类装备时，治疗率增加X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>每死亡一个友方单位，姜维的攻击提升X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>普攻回复X法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对随机3名敌人造成X伤害，消耗X法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对全体单位增加X防御</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>毁灭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>风流</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>洞察</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当装备穿刺类武器时，普通攻击附加【破甲】2回合，当装备法术类武器时，普通攻击附加【感电】2回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对直线敌人造成伤害，调息2回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对全体敌人造成X伤害，并20%附加【晕眩】1回合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>减少X速度转化为等值物理防御和法术防御</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>徐林</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>坚甲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>免疫【晕眩】【迟缓】，比自身速度快的英雄对其伤害减少30%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>先机技：初次被伤害时，免疫该伤害，怒气增加100，且初次伤害增加100%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>毁灭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>增加攻击百分比</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7734,317 +7734,317 @@
       </rPr>
       <t>D</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>效果</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>灼烧</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>晕眩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>缴械</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>封技</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破甲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>连环</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>麻痹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>恫吓</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>混乱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>激昂</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>缠怨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>感电</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>先机技：增加全队七杀50%怒气</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>中毒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>离间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>撕裂</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>流血</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>持续减血</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>伤害类战斗公式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>持续类战斗公式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>分别计算</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>效果叠加状况</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>无法施展绝技，特殊技能；只能普通攻击</t>
   </si>
   <si>
     <t>不可叠加</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>吕布专属</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>无法一切行动</t>
   </si>
   <si>
     <t>无法进行普通攻击；可施展绝技，特殊技能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>不能触发格挡，闪避</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>绝技和特殊技能均无法施展时不能行动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>回合阶段不分敌我进行一次技能系数为1的单体普通攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>孙策专属</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>攻防速的值减少百分之五</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>攻击增加百分之五十</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>易损</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>连环后的所有本方单位之中有人中了异常状态，则其他人均会中该异常状态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>庞统专属</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>致盲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>虚弱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>于吉专属</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>必中技能无法被治疗，生命低于百分之20直接死亡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>命中下降100%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>法术防御下降20%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>物理防御下降20%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>攻击下降20%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>迟缓</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>封疗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>无法回复生命</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>贾诩专属</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>免疫【致盲】，永久降低20%命中，反击【一定命中】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>断筋</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>无法格挡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>貂蝉专属</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>抗暴下降50%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>弱点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破绽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>暴击伤害减免减少50%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>免疫【弱点】【破绽】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金星，免疫【断筋】【虚弱】</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>封怒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>绝气</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>七杀无法回复怒气</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>贪狼无法回复法力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>藏兵</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>破军盾无法增加</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>同名不可叠加</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>必中技能，攻击高的一方对攻击低的一方进行一次技能系数为1的单体普通攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>速度下降20%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>闪避下降100%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>受到所有伤害增加10%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>男</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>女</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>大风天气下，友方的【灼烧】效果加倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>回复类战斗公式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{我方攻击力X技能系数X[1+(我方攻击对应属性-对方对应属性)%]}X(1+我方增伤百分比-对方减伤百分比)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8150,48 +8150,56 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>回合后减血，不受防御影响，仅受到法术减伤和总减伤的影响，该效果存在时不会被暴击闪避格挡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>回合前减血，不受防御影响，仅受到法术减伤和总减伤的影响，该效果存在时不会被暴击闪避格挡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>回合后减血，不受防御影响，仅受到物理减伤和总减伤的影响，该效果存在时不会被暴击闪避格挡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>回合前减血，不受防御影响，仅受到物理减伤和总减伤的影响，该效果存在时不会被暴击闪避格挡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对单体目标造成X伤害，额外击破X破军盾，并提升X格挡率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>血量每减少一定百分比</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>血量每减少一定百分比</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -8354,192 +8362,192 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8554,13 +8562,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -8572,36 +8580,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -8609,9 +8620,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -8952,11 +8960,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P25" sqref="P25"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42.6" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13399,7 +13407,7 @@
       <sortCondition descending="1" ref="G1"/>
     </sortState>
   </autoFilter>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13490,7 +13498,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13501,7 +13509,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13893,7 +13901,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13902,8 +13910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14011,7 +14019,7 @@
       <c r="B7" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="77" t="s">
         <v>911</v>
       </c>
       <c r="D7" s="29" t="s">
@@ -14026,7 +14034,7 @@
       <c r="B8" s="29" t="s">
         <v>542</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="77" t="s">
         <v>910</v>
       </c>
       <c r="D8" s="29" t="s">
@@ -14295,7 +14303,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14305,7 +14313,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14318,7 +14326,7 @@
       <c r="A1" s="74" t="s">
         <v>847</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="77" t="s">
         <v>725</v>
       </c>
     </row>
@@ -14339,7 +14347,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14348,8 +14356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14775,7 +14783,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14905,7 +14913,7 @@
       <c r="C13" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14935,55 +14943,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
       <c r="K1" s="4"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
-      <c r="N1" s="79" t="s">
+      <c r="N1" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="O1" s="77" t="s">
+      <c r="O1" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="2" t="s">
         <v>182</v>
       </c>
@@ -15005,7 +15013,7 @@
       <c r="M2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="N2" s="79"/>
+      <c r="N2" s="80"/>
       <c r="O2" s="21" t="s">
         <v>28</v>
       </c>
@@ -18667,7 +18675,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
